--- a/src/test/resources/FHEO-Testdata1.xlsx
+++ b/src/test/resources/FHEO-Testdata1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662D7BD-2430-4D1B-8473-24063D2B0C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486BBEF-876B-4006-81E0-F73BFE91FC11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,25 +195,25 @@
     <t>JohnMS@gmail.com</t>
   </si>
   <si>
-    <t>Smith1</t>
-  </si>
-  <si>
     <t>Washington, D.C.</t>
   </si>
   <si>
-    <t>John1</t>
-  </si>
-  <si>
     <t>District of Columbia</t>
   </si>
   <si>
     <t>Akil1@gmail.com</t>
   </si>
   <si>
-    <t>Krish - Auto1</t>
-  </si>
-  <si>
-    <t>Updik1</t>
+    <t>Krish - Auto6</t>
+  </si>
+  <si>
+    <t>Smith6</t>
+  </si>
+  <si>
+    <t>John6</t>
+  </si>
+  <si>
+    <t>Updik6</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1159,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD51"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1318,8 +1318,8 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1333,17 +1333,17 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
@@ -1352,10 +1352,10 @@
         <v>8009098909</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>23</v>
@@ -1379,7 +1379,7 @@
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W2" s="13" t="s">
         <v>60</v>
@@ -1400,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD2" s="13" t="s">
         <v>22</v>
@@ -1430,9 +1430,9 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{37BC02B3-4843-49B6-B6BB-BF0B530FC773}"/>
-    <hyperlink ref="AK2" r:id="rId2" xr:uid="{D863FA20-D542-4FBC-A59A-E8A7413D0C6A}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{B59FDA4B-C7C8-4441-8F17-326054B92699}"/>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{2B91F473-37EF-43D6-919A-EAE0BDB0C9FD}"/>
+    <hyperlink ref="AK2" r:id="rId2" xr:uid="{1B556879-DC18-4AA5-9AA1-51D05DC8F4C0}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{AC75280C-1B75-448E-9BFC-CF5283A11E18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/test/resources/FHEO-Testdata1.xlsx
+++ b/src/test/resources/FHEO-Testdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486BBEF-876B-4006-81E0-F73BFE91FC11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255323E3-54EB-4A8C-8618-79E28D0FB3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="379">
   <si>
     <t>race</t>
   </si>
@@ -214,6 +214,960 @@
   </si>
   <si>
     <t>Updik6</t>
+  </si>
+  <si>
+    <t>Krish - Auto1</t>
+  </si>
+  <si>
+    <t>Smith1</t>
+  </si>
+  <si>
+    <t>John1</t>
+  </si>
+  <si>
+    <t>Updik1</t>
+  </si>
+  <si>
+    <t>Krish - Auto2</t>
+  </si>
+  <si>
+    <t>Smith2</t>
+  </si>
+  <si>
+    <t>John2</t>
+  </si>
+  <si>
+    <t>Updik2</t>
+  </si>
+  <si>
+    <t>Krish - Auto3</t>
+  </si>
+  <si>
+    <t>Smith3</t>
+  </si>
+  <si>
+    <t>John3</t>
+  </si>
+  <si>
+    <t>Updik3</t>
+  </si>
+  <si>
+    <t>Krish - Auto4</t>
+  </si>
+  <si>
+    <t>Smith4</t>
+  </si>
+  <si>
+    <t>John4</t>
+  </si>
+  <si>
+    <t>Updik4</t>
+  </si>
+  <si>
+    <t>Krish - Auto5</t>
+  </si>
+  <si>
+    <t>Smith5</t>
+  </si>
+  <si>
+    <t>John5</t>
+  </si>
+  <si>
+    <t>Updik5</t>
+  </si>
+  <si>
+    <t>This is the other reason description</t>
+  </si>
+  <si>
+    <t>Krish - Auto7</t>
+  </si>
+  <si>
+    <t>Smith7</t>
+  </si>
+  <si>
+    <t>John7</t>
+  </si>
+  <si>
+    <t>Updik7</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Smith8</t>
+  </si>
+  <si>
+    <t>John8</t>
+  </si>
+  <si>
+    <t>Updik8</t>
+  </si>
+  <si>
+    <t>Krish - Auto8</t>
+  </si>
+  <si>
+    <t>John9</t>
+  </si>
+  <si>
+    <t>Updik9</t>
+  </si>
+  <si>
+    <t>Krish - Auto9</t>
+  </si>
+  <si>
+    <t>Smith9</t>
+  </si>
+  <si>
+    <t>John10</t>
+  </si>
+  <si>
+    <t>Updik10</t>
+  </si>
+  <si>
+    <t>Krish - Auto10</t>
+  </si>
+  <si>
+    <t>Smith10</t>
+  </si>
+  <si>
+    <t>John11</t>
+  </si>
+  <si>
+    <t>Updik11</t>
+  </si>
+  <si>
+    <t>Krish - Auto11</t>
+  </si>
+  <si>
+    <t>Smith11</t>
+  </si>
+  <si>
+    <t>John12</t>
+  </si>
+  <si>
+    <t>Updik12</t>
+  </si>
+  <si>
+    <t>Krish - Auto12</t>
+  </si>
+  <si>
+    <t>Smith12</t>
+  </si>
+  <si>
+    <t>Colorado, CO.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>John13</t>
+  </si>
+  <si>
+    <t>Updik13</t>
+  </si>
+  <si>
+    <t>Krish - Auto13</t>
+  </si>
+  <si>
+    <t>Smith13</t>
+  </si>
+  <si>
+    <t>1245 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>John14</t>
+  </si>
+  <si>
+    <t>Updik14</t>
+  </si>
+  <si>
+    <t>1247 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto14</t>
+  </si>
+  <si>
+    <t>Smith14</t>
+  </si>
+  <si>
+    <t>1246 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>John15</t>
+  </si>
+  <si>
+    <t>Updik15</t>
+  </si>
+  <si>
+    <t>1248 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto15</t>
+  </si>
+  <si>
+    <t>Smith15</t>
+  </si>
+  <si>
+    <t>John16</t>
+  </si>
+  <si>
+    <t>Updik16</t>
+  </si>
+  <si>
+    <t>1249 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto16</t>
+  </si>
+  <si>
+    <t>Smith16</t>
+  </si>
+  <si>
+    <t>John17</t>
+  </si>
+  <si>
+    <t>Updik17</t>
+  </si>
+  <si>
+    <t>1250 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto17</t>
+  </si>
+  <si>
+    <t>Smith17</t>
+  </si>
+  <si>
+    <t>John18</t>
+  </si>
+  <si>
+    <t>Updik18</t>
+  </si>
+  <si>
+    <t>1251 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto18</t>
+  </si>
+  <si>
+    <t>Smith18</t>
+  </si>
+  <si>
+    <t>John19</t>
+  </si>
+  <si>
+    <t>Updik19</t>
+  </si>
+  <si>
+    <t>1252 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto19</t>
+  </si>
+  <si>
+    <t>Smith19</t>
+  </si>
+  <si>
+    <t>John20</t>
+  </si>
+  <si>
+    <t>Updik20</t>
+  </si>
+  <si>
+    <t>1253 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto20</t>
+  </si>
+  <si>
+    <t>Smith20</t>
+  </si>
+  <si>
+    <t>John21</t>
+  </si>
+  <si>
+    <t>Updik21</t>
+  </si>
+  <si>
+    <t>1254 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto21</t>
+  </si>
+  <si>
+    <t>Smith21</t>
+  </si>
+  <si>
+    <t>John22</t>
+  </si>
+  <si>
+    <t>Updik22</t>
+  </si>
+  <si>
+    <t>1255 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto22</t>
+  </si>
+  <si>
+    <t>Smith22</t>
+  </si>
+  <si>
+    <t>John23</t>
+  </si>
+  <si>
+    <t>Updik23</t>
+  </si>
+  <si>
+    <t>1256 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto23</t>
+  </si>
+  <si>
+    <t>Smith23</t>
+  </si>
+  <si>
+    <t>John24</t>
+  </si>
+  <si>
+    <t>Updik24</t>
+  </si>
+  <si>
+    <t>1257 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>John25</t>
+  </si>
+  <si>
+    <t>Updik25</t>
+  </si>
+  <si>
+    <t>1258 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>John26</t>
+  </si>
+  <si>
+    <t>Updik26</t>
+  </si>
+  <si>
+    <t>1259 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto24</t>
+  </si>
+  <si>
+    <t>Smith24</t>
+  </si>
+  <si>
+    <t>John27</t>
+  </si>
+  <si>
+    <t>Updik27</t>
+  </si>
+  <si>
+    <t>Krish - Auto25</t>
+  </si>
+  <si>
+    <t>Smith25</t>
+  </si>
+  <si>
+    <t>John28</t>
+  </si>
+  <si>
+    <t>Updik28</t>
+  </si>
+  <si>
+    <t>Krish - Auto26</t>
+  </si>
+  <si>
+    <t>Smith26</t>
+  </si>
+  <si>
+    <t>John29</t>
+  </si>
+  <si>
+    <t>Updik29</t>
+  </si>
+  <si>
+    <t>Krish - Auto27</t>
+  </si>
+  <si>
+    <t>Smith27</t>
+  </si>
+  <si>
+    <t>John30</t>
+  </si>
+  <si>
+    <t>Updik30</t>
+  </si>
+  <si>
+    <t>Krish - Auto28</t>
+  </si>
+  <si>
+    <t>Smith28</t>
+  </si>
+  <si>
+    <t>John31</t>
+  </si>
+  <si>
+    <t>Updik31</t>
+  </si>
+  <si>
+    <t>Krish - Auto29</t>
+  </si>
+  <si>
+    <t>Smith29</t>
+  </si>
+  <si>
+    <t>John32</t>
+  </si>
+  <si>
+    <t>Updik32</t>
+  </si>
+  <si>
+    <t>Krish - Auto30</t>
+  </si>
+  <si>
+    <t>Smith30</t>
+  </si>
+  <si>
+    <t>John33</t>
+  </si>
+  <si>
+    <t>Updik33</t>
+  </si>
+  <si>
+    <t>John34</t>
+  </si>
+  <si>
+    <t>Updik34</t>
+  </si>
+  <si>
+    <t>John35</t>
+  </si>
+  <si>
+    <t>Updik35</t>
+  </si>
+  <si>
+    <t>John36</t>
+  </si>
+  <si>
+    <t>Updik36</t>
+  </si>
+  <si>
+    <t>John37</t>
+  </si>
+  <si>
+    <t>Updik37</t>
+  </si>
+  <si>
+    <t>John38</t>
+  </si>
+  <si>
+    <t>Updik38</t>
+  </si>
+  <si>
+    <t>John39</t>
+  </si>
+  <si>
+    <t>Updik39</t>
+  </si>
+  <si>
+    <t>John40</t>
+  </si>
+  <si>
+    <t>Updik40</t>
+  </si>
+  <si>
+    <t>John41</t>
+  </si>
+  <si>
+    <t>Updik41</t>
+  </si>
+  <si>
+    <t>John42</t>
+  </si>
+  <si>
+    <t>Updik42</t>
+  </si>
+  <si>
+    <t>John43</t>
+  </si>
+  <si>
+    <t>Updik43</t>
+  </si>
+  <si>
+    <t>John44</t>
+  </si>
+  <si>
+    <t>Updik44</t>
+  </si>
+  <si>
+    <t>John45</t>
+  </si>
+  <si>
+    <t>Updik45</t>
+  </si>
+  <si>
+    <t>John46</t>
+  </si>
+  <si>
+    <t>Updik46</t>
+  </si>
+  <si>
+    <t>Krish - Auto31</t>
+  </si>
+  <si>
+    <t>Smith31</t>
+  </si>
+  <si>
+    <t>John47</t>
+  </si>
+  <si>
+    <t>Updik47</t>
+  </si>
+  <si>
+    <t>Family member or friend</t>
+  </si>
+  <si>
+    <t>Krish - Auto32</t>
+  </si>
+  <si>
+    <t>Smith32</t>
+  </si>
+  <si>
+    <t>John48</t>
+  </si>
+  <si>
+    <t>Updik48</t>
+  </si>
+  <si>
+    <t>Krish - Auto33</t>
+  </si>
+  <si>
+    <t>Smith33</t>
+  </si>
+  <si>
+    <t>John49</t>
+  </si>
+  <si>
+    <t>Updik49</t>
+  </si>
+  <si>
+    <t>Krish - Auto34</t>
+  </si>
+  <si>
+    <t>Smith34</t>
+  </si>
+  <si>
+    <t>John50</t>
+  </si>
+  <si>
+    <t>Updik50</t>
+  </si>
+  <si>
+    <t>Krish - Auto35</t>
+  </si>
+  <si>
+    <t>Smith35</t>
+  </si>
+  <si>
+    <t>John51</t>
+  </si>
+  <si>
+    <t>Updik51</t>
+  </si>
+  <si>
+    <t>Krish - Auto36</t>
+  </si>
+  <si>
+    <t>Smith36</t>
+  </si>
+  <si>
+    <t>John52</t>
+  </si>
+  <si>
+    <t>Updik52</t>
+  </si>
+  <si>
+    <t>Krish - Auto37</t>
+  </si>
+  <si>
+    <t>Smith37</t>
+  </si>
+  <si>
+    <t>John53</t>
+  </si>
+  <si>
+    <t>Updik53</t>
+  </si>
+  <si>
+    <t>Smith38</t>
+  </si>
+  <si>
+    <t>John54</t>
+  </si>
+  <si>
+    <t>Updik54</t>
+  </si>
+  <si>
+    <t>Krish - Auto38</t>
+  </si>
+  <si>
+    <t>John55</t>
+  </si>
+  <si>
+    <t>Updik55</t>
+  </si>
+  <si>
+    <t>Krish - Auto39</t>
+  </si>
+  <si>
+    <t>Smith39</t>
+  </si>
+  <si>
+    <t>John56</t>
+  </si>
+  <si>
+    <t>Updik56</t>
+  </si>
+  <si>
+    <t>Krish - Auto40</t>
+  </si>
+  <si>
+    <t>Smith40</t>
+  </si>
+  <si>
+    <t>John57</t>
+  </si>
+  <si>
+    <t>Updik57</t>
+  </si>
+  <si>
+    <t>Krish - Auto41</t>
+  </si>
+  <si>
+    <t>Smith41</t>
+  </si>
+  <si>
+    <t>John58</t>
+  </si>
+  <si>
+    <t>Updik58</t>
+  </si>
+  <si>
+    <t>Krish - Auto42</t>
+  </si>
+  <si>
+    <t>Smith42</t>
+  </si>
+  <si>
+    <t>John59</t>
+  </si>
+  <si>
+    <t>Updik59</t>
+  </si>
+  <si>
+    <t>Krish - Auto43</t>
+  </si>
+  <si>
+    <t>Smith43</t>
+  </si>
+  <si>
+    <t>John60</t>
+  </si>
+  <si>
+    <t>Updik60</t>
+  </si>
+  <si>
+    <t>Krish - Auto44</t>
+  </si>
+  <si>
+    <t>Smith44</t>
+  </si>
+  <si>
+    <t>John61</t>
+  </si>
+  <si>
+    <t>Updik61</t>
+  </si>
+  <si>
+    <t>Krish - Auto45</t>
+  </si>
+  <si>
+    <t>Smith45</t>
+  </si>
+  <si>
+    <t>John62</t>
+  </si>
+  <si>
+    <t>Updik62</t>
+  </si>
+  <si>
+    <t>Krish - Auto46</t>
+  </si>
+  <si>
+    <t>Smith46</t>
+  </si>
+  <si>
+    <t>John63</t>
+  </si>
+  <si>
+    <t>Updik63</t>
+  </si>
+  <si>
+    <t>Krish - Auto47</t>
+  </si>
+  <si>
+    <t>Smith47</t>
+  </si>
+  <si>
+    <t>John64</t>
+  </si>
+  <si>
+    <t>Updik64</t>
+  </si>
+  <si>
+    <t>Krish - Auto48</t>
+  </si>
+  <si>
+    <t>Smith48</t>
+  </si>
+  <si>
+    <t>John65</t>
+  </si>
+  <si>
+    <t>Updik65</t>
+  </si>
+  <si>
+    <t>Krish - Auto49</t>
+  </si>
+  <si>
+    <t>Smith49</t>
+  </si>
+  <si>
+    <t>John66</t>
+  </si>
+  <si>
+    <t>Updik66</t>
+  </si>
+  <si>
+    <t>Krish - Auto50</t>
+  </si>
+  <si>
+    <t>Smith50</t>
+  </si>
+  <si>
+    <t>John67</t>
+  </si>
+  <si>
+    <t>Updik67</t>
+  </si>
+  <si>
+    <t>Krish - Auto51</t>
+  </si>
+  <si>
+    <t>Smith51</t>
+  </si>
+  <si>
+    <t>John68</t>
+  </si>
+  <si>
+    <t>Updik68</t>
+  </si>
+  <si>
+    <t>Krish - Auto52</t>
+  </si>
+  <si>
+    <t>Smith52</t>
+  </si>
+  <si>
+    <t>John69</t>
+  </si>
+  <si>
+    <t>Updik69</t>
+  </si>
+  <si>
+    <t>Krish - Auto53</t>
+  </si>
+  <si>
+    <t>Smith53</t>
+  </si>
+  <si>
+    <t>John70</t>
+  </si>
+  <si>
+    <t>Updik70</t>
+  </si>
+  <si>
+    <t>John71</t>
+  </si>
+  <si>
+    <t>Updik71</t>
+  </si>
+  <si>
+    <t>John72</t>
+  </si>
+  <si>
+    <t>Updik72</t>
+  </si>
+  <si>
+    <t>Krish - Auto54</t>
+  </si>
+  <si>
+    <t>Smith54</t>
+  </si>
+  <si>
+    <t>John73</t>
+  </si>
+  <si>
+    <t>Updik73</t>
+  </si>
+  <si>
+    <t>Krish - Auto55</t>
+  </si>
+  <si>
+    <t>Smith55</t>
+  </si>
+  <si>
+    <t>John74</t>
+  </si>
+  <si>
+    <t>Updik74</t>
+  </si>
+  <si>
+    <t>Krish - Auto56</t>
+  </si>
+  <si>
+    <t>Smith56</t>
+  </si>
+  <si>
+    <t>John75</t>
+  </si>
+  <si>
+    <t>Updik75</t>
+  </si>
+  <si>
+    <t>Krish - Auto57</t>
+  </si>
+  <si>
+    <t>Smith57</t>
+  </si>
+  <si>
+    <t>John76</t>
+  </si>
+  <si>
+    <t>Updik76</t>
+  </si>
+  <si>
+    <t>Krish - Auto58</t>
+  </si>
+  <si>
+    <t>Smith58</t>
+  </si>
+  <si>
+    <t>John77</t>
+  </si>
+  <si>
+    <t>Updik77</t>
+  </si>
+  <si>
+    <t>Krish - Auto59</t>
+  </si>
+  <si>
+    <t>Smith59</t>
+  </si>
+  <si>
+    <t>John78</t>
+  </si>
+  <si>
+    <t>Updik78</t>
+  </si>
+  <si>
+    <t>Krish - Auto60</t>
+  </si>
+  <si>
+    <t>Smith60</t>
+  </si>
+  <si>
+    <t>John79</t>
+  </si>
+  <si>
+    <t>Updik79</t>
+  </si>
+  <si>
+    <t>John80</t>
+  </si>
+  <si>
+    <t>Updik80</t>
+  </si>
+  <si>
+    <t>John81</t>
+  </si>
+  <si>
+    <t>Updik81</t>
+  </si>
+  <si>
+    <t>John82</t>
+  </si>
+  <si>
+    <t>Updik82</t>
+  </si>
+  <si>
+    <t>John83</t>
+  </si>
+  <si>
+    <t>Updik83</t>
+  </si>
+  <si>
+    <t>John84</t>
+  </si>
+  <si>
+    <t>Updik84</t>
+  </si>
+  <si>
+    <t>John85</t>
+  </si>
+  <si>
+    <t>Updik85</t>
+  </si>
+  <si>
+    <t>John86</t>
+  </si>
+  <si>
+    <t>Updik86</t>
+  </si>
+  <si>
+    <t>John87</t>
+  </si>
+  <si>
+    <t>Updik87</t>
+  </si>
+  <si>
+    <t>John88</t>
+  </si>
+  <si>
+    <t>Updik88</t>
+  </si>
+  <si>
+    <t>John89</t>
+  </si>
+  <si>
+    <t>Updik89</t>
+  </si>
+  <si>
+    <t>John90</t>
+  </si>
+  <si>
+    <t>Updik90</t>
   </si>
 </sst>
 </file>
@@ -751,7 +1705,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -792,6 +1746,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1153,13 +2113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A2:XFD6"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1318,8 +2278,8 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
+      <c r="A2" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1333,17 +2293,17 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>6</v>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
@@ -1379,10 +2339,10 @@
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X2" s="13">
         <v>2224568749</v>
@@ -1426,15 +2386,8845 @@
       <c r="AK2" s="15" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X13" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK15" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" s="19"/>
+      <c r="T16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK17" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X18" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X19" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X20" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X21" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK21" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S22" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X22" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK22" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S23" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S24" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="X25" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK25" s="21"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="X26" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="X27" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="X28" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK28" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="X29" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK29" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ30" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK30" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="X31" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ31" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK31" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="X32" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI32" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK32" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK33" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="X34" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK34" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="X35" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="19"/>
+      <c r="T36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="X36" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="X37" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="19"/>
+      <c r="T38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="X38" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="19"/>
+      <c r="T39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="X39" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD39" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="19"/>
+      <c r="T40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="19"/>
+      <c r="T41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="X41" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S42" s="19"/>
+      <c r="T42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="X42" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="19"/>
+      <c r="T43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="X43" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="19"/>
+      <c r="T44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="X44" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD44" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE44" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" s="19"/>
+      <c r="T45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="X45" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE45" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" s="19"/>
+      <c r="T46" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="X46" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD46" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="19"/>
+      <c r="T47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V47" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="X47" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD47" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="X48" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y48" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG48" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH48" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ48" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK48" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V49" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="X49" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y49" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z49" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH49" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ49" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK49" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="X50" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z50" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE50" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH50" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ50" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK50" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S51" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="X51" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z51" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE51" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG51" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH51" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ51" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK51" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S52" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V52" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="X52" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y52" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z52" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG52" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH52" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ52" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK52" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V53" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="X53" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z53" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC53" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE53" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG53" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH53" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ53" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK53" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S54" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="X54" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y54" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z54" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH54" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ54" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK54" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="X55" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y55" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z55" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG55" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH55" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ55" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK55" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S56" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V56" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="X56" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z56" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG56" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH56" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ56" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK56" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K57" s="19"/>
+      <c r="L57" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S57" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="X57" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y57" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z57" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH57" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ57" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK57" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="19"/>
+      <c r="M58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="X58" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z58" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD58" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF58" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG58" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH58" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ58" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK58" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M59" s="20"/>
+      <c r="N59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S59" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V59" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="X59" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y59" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z59" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB59" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD59" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE59" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF59" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG59" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH59" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ59" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK59" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O60" s="19"/>
+      <c r="P60" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S60" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="X60" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y60" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z60" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE60" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF60" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG60" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH60" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ60" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK60" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S61" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V61" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="X61" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y61" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z61" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB61" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC61" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD61" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE61" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF61" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG61" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH61" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ61" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK61" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P62" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S62" s="19"/>
+      <c r="T62" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="X62" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z62" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB62" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC62" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD62" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE62" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF62" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG62" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH62" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ62" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK62" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S63" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T63" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="X63" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB63" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD63" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF63" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG63" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH63" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ63" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK63" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P64" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S64" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V64" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="X64" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB64" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD64" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE64" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF64" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG64" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH64" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ64" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK64" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S65" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="X65" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y65" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z65" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD65" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE65" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF65" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG65" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH65" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ65" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK65" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S66" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V66" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="X66" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z66" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC66" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD66" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE66" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH66" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ66" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK66" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S67" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V67" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="X67" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y67" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z67" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB67" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC67" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD67" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE67" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG67" s="23"/>
+      <c r="AH67" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ67" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK67" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P68" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S68" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="X68" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y68" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z68" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB68" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC68" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD68" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE68" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF68" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG68" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH68" s="23"/>
+      <c r="AJ68" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK68" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P69" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S69" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V69" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="X69" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y69" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z69" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB69" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC69" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD69" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE69" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF69" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH69" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK69" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P70" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S70" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V70" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="X70" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y70" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z70" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB70" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC70" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD70" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE70" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF70" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG70" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH70" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ70" s="19"/>
+      <c r="AK70" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S71" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="X71" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y71" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z71" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB71" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC71" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD71" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE71" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF71" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG71" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH71" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ71" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK71" s="21"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S72" s="19"/>
+      <c r="T72" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="X72" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE72" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF72" s="23"/>
+      <c r="AG72" s="23"/>
+      <c r="AH72" s="23"/>
+      <c r="AI72" s="23"/>
+      <c r="AJ72" s="23"/>
+      <c r="AK72" s="23"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S73" s="19"/>
+      <c r="T73" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V73" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="W73" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="X73" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD73" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE73" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF73" s="23"/>
+      <c r="AG73" s="23"/>
+      <c r="AH73" s="23"/>
+      <c r="AI73" s="23"/>
+      <c r="AJ73" s="23"/>
+      <c r="AK73" s="23"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S74" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T74" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="X74" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z74" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA74" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB74" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE74" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF74" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG74" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH74" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ74" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK74" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S75" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T75" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="X75" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y75" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z75" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB75" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC75" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD75" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE75" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF75" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG75" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH75" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ75" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK75" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S76" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T76" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V76" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="X76" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y76" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z76" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB76" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD76" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE76" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF76" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH76" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ76" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK76" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S77" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V77" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="X77" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y77" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z77" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA77" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB77" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC77" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD77" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE77" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF77" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG77" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH77" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ77" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK77" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S78" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T78" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V78" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="X78" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y78" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z78" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB78" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC78" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD78" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE78" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF78" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG78" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH78" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ78" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK78" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S79" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V79" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="W79" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="X79" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y79" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z79" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA79" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB79" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD79" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE79" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF79" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG79" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH79" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ79" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK79" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S80" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="X80" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y80" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z80" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB80" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC80" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE80" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF80" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG80" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH80" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ80" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK80" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S81" s="19"/>
+      <c r="T81" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V81" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X81" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD81" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE81" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF81" s="23"/>
+      <c r="AG81" s="23"/>
+      <c r="AH81" s="23"/>
+      <c r="AI81" s="23"/>
+      <c r="AJ81" s="23"/>
+      <c r="AK81" s="23"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S82" s="19"/>
+      <c r="T82" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V82" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="X82" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD82" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE82" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF82" s="23"/>
+      <c r="AG82" s="23"/>
+      <c r="AH82" s="23"/>
+      <c r="AI82" s="23"/>
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="23"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S83" s="19"/>
+      <c r="T83" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V83" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="X83" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD83" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE83" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="23"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="23"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S84" s="19"/>
+      <c r="T84" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V84" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="X84" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD84" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE84" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S85" s="19"/>
+      <c r="T85" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V85" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="W85" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="X85" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD85" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE85" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="23"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S86" s="19"/>
+      <c r="T86" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="X86" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD86" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE86" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="23"/>
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="23"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S87" s="19"/>
+      <c r="T87" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V87" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="W87" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="X87" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD87" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE87" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S88" s="19"/>
+      <c r="T88" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V88" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="W88" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="X88" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD88" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE88" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S89" s="19"/>
+      <c r="T89" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V89" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="W89" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="X89" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD89" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE89" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="23"/>
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="23"/>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S90" s="19"/>
+      <c r="T90" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V90" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="W90" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="X90" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD90" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE90" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+      <c r="AJ90" s="23"/>
+      <c r="AK90" s="23"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" s="19"/>
+      <c r="T91" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V91" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="W91" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="X91" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD91" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE91" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{2B91F473-37EF-43D6-919A-EAE0BDB0C9FD}"/>
-    <hyperlink ref="AK2" r:id="rId2" xr:uid="{1B556879-DC18-4AA5-9AA1-51D05DC8F4C0}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{AC75280C-1B75-448E-9BFC-CF5283A11E18}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{CAA13351-402D-4783-8C5B-8FE0CC7588AE}"/>
+    <hyperlink ref="Y4" r:id="rId2" xr:uid="{5448E915-1A79-49D2-9057-F3B4D13C5255}"/>
+    <hyperlink ref="AK4" r:id="rId3" xr:uid="{E886EA26-75C5-46BF-B30B-CE07E2BE3627}"/>
+    <hyperlink ref="Y2" r:id="rId4" xr:uid="{ACD5ACCB-91B4-4F38-98EE-3943435B7AB2}"/>
+    <hyperlink ref="AK2" r:id="rId5" xr:uid="{B138A9C9-81CE-4122-8F9E-252A9BB8D5A5}"/>
+    <hyperlink ref="Y3" r:id="rId6" xr:uid="{7E7B17DE-00BC-470D-AC31-29C9714DA1FC}"/>
+    <hyperlink ref="AK3" r:id="rId7" xr:uid="{4F9D9D9B-54B7-44C3-BC69-740C1CE66A7B}"/>
+    <hyperlink ref="Y5" r:id="rId8" xr:uid="{72750343-DC7B-401D-BDD5-216025353CD7}"/>
+    <hyperlink ref="AK5" r:id="rId9" xr:uid="{D89279B4-F403-4F53-8474-F0E60545A91E}"/>
+    <hyperlink ref="Y6" r:id="rId10" xr:uid="{70654827-A647-410F-B68F-AFB34092AD9D}"/>
+    <hyperlink ref="AK6" r:id="rId11" xr:uid="{9E5C4682-AF90-4356-8474-BED7EDEA086C}"/>
+    <hyperlink ref="Y7" r:id="rId12" xr:uid="{2DA04658-443A-45F9-BCA5-C29F16CAD363}"/>
+    <hyperlink ref="AK7" r:id="rId13" xr:uid="{2A97ABC5-C790-4DD4-AA01-104F25A58C9A}"/>
+    <hyperlink ref="Y8" r:id="rId14" xr:uid="{4FFDFC20-54C7-4670-8904-85858C2B8459}"/>
+    <hyperlink ref="AK8" r:id="rId15" xr:uid="{6A977641-799F-4CEC-9893-374600A5CD19}"/>
+    <hyperlink ref="Y9" r:id="rId16" xr:uid="{EDCDE153-9543-4DCD-BDBE-55D0660F76E8}"/>
+    <hyperlink ref="AK9" r:id="rId17" xr:uid="{98BDC053-8F25-4F8C-B311-C1C84939BDA2}"/>
+    <hyperlink ref="Y10" r:id="rId18" xr:uid="{4099DD2F-5C6F-48E2-8F38-D717D2C6452E}"/>
+    <hyperlink ref="AK10" r:id="rId19" xr:uid="{B4649735-DC20-4F94-8415-552E5236D305}"/>
+    <hyperlink ref="Y11" r:id="rId20" xr:uid="{47F6BB89-6D84-4385-BEB9-A924F18AD1FD}"/>
+    <hyperlink ref="AK11" r:id="rId21" xr:uid="{9E40590D-90F4-4C47-9AD9-D1FE6A237483}"/>
+    <hyperlink ref="Y12" r:id="rId22" xr:uid="{362F6D76-0048-4311-82E1-A41A0E0676C9}"/>
+    <hyperlink ref="AK12" r:id="rId23" xr:uid="{5E79598E-5CAF-4F4B-B992-BD8D694E532D}"/>
+    <hyperlink ref="Y13" r:id="rId24" xr:uid="{1C2BD64E-5D59-4C74-9A33-D7D1DC762474}"/>
+    <hyperlink ref="AK13" r:id="rId25" xr:uid="{A5CC0010-7FF9-414C-A279-BF0E71DB8EB4}"/>
+    <hyperlink ref="Y14" r:id="rId26" xr:uid="{BC70B155-2C16-460B-AE5A-06CF2B4BB24A}"/>
+    <hyperlink ref="AK14" r:id="rId27" xr:uid="{44EC540B-39DF-46EB-8016-EFFCF363B860}"/>
+    <hyperlink ref="Y15" r:id="rId28" xr:uid="{6D3BE510-B423-4CA9-A502-74FC7931262E}"/>
+    <hyperlink ref="AK15" r:id="rId29" xr:uid="{E3BDE8E6-FCA3-4F53-A0EF-554D08305DF7}"/>
+    <hyperlink ref="Y16" r:id="rId30" xr:uid="{792DCFF1-6B92-45E8-BB40-F22E3DD5FA1D}"/>
+    <hyperlink ref="AK16" r:id="rId31" xr:uid="{A8D4ADEC-35F8-4285-AA06-E0F09B633672}"/>
+    <hyperlink ref="AK17" r:id="rId32" xr:uid="{CC9EAF9F-B9F7-4620-BAE8-9A3AB963DABB}"/>
+    <hyperlink ref="Y18" r:id="rId33" xr:uid="{8CB32878-D5D1-4166-B0DB-E8C271C502E3}"/>
+    <hyperlink ref="AK18" r:id="rId34" xr:uid="{3D80C000-0EF1-4758-88EA-BFC72496067E}"/>
+    <hyperlink ref="Y19" r:id="rId35" xr:uid="{6C5C4BDE-E066-4D42-9BDC-D7666DB441DB}"/>
+    <hyperlink ref="AK19" r:id="rId36" xr:uid="{16D89B22-A47A-43B6-8A0D-1A5075113720}"/>
+    <hyperlink ref="Y20" r:id="rId37" xr:uid="{AD8C4B42-E939-4D46-A9F9-9FE199FAF82D}"/>
+    <hyperlink ref="AK20" r:id="rId38" xr:uid="{69931E76-36E3-43B2-8514-E13D02BB7D10}"/>
+    <hyperlink ref="Y21" r:id="rId39" xr:uid="{01BF55AD-0D82-4A7A-BF65-664E0BD6094E}"/>
+    <hyperlink ref="AK21" r:id="rId40" xr:uid="{3DC69BEC-8434-4FA6-80F7-F61AECCBCEA6}"/>
+    <hyperlink ref="Y22" r:id="rId41" xr:uid="{00314F88-A367-46AA-84AD-5178DCD68A9E}"/>
+    <hyperlink ref="AK22" r:id="rId42" xr:uid="{4B9AF77A-D63B-45D7-B31F-5800101BED85}"/>
+    <hyperlink ref="Y23" r:id="rId43" xr:uid="{8DF425B3-69BC-4AC8-9975-4CAD27CDE209}"/>
+    <hyperlink ref="AK23" r:id="rId44" xr:uid="{A772C338-07FE-469D-9BF1-242E822B0FD0}"/>
+    <hyperlink ref="Y24" r:id="rId45" xr:uid="{2ADC2E99-3953-4F50-AA93-CB843BA18CAA}"/>
+    <hyperlink ref="AK24" r:id="rId46" xr:uid="{0550E6B7-28CF-4249-AF64-8FF594DEB9D9}"/>
+    <hyperlink ref="Y25" r:id="rId47" xr:uid="{4427AE4E-CDE8-46DE-95BB-55D68A60104D}"/>
+    <hyperlink ref="Y28" r:id="rId48" xr:uid="{EF070CA9-2AB7-4787-9C71-CC5A6BEA5DD4}"/>
+    <hyperlink ref="AK28" r:id="rId49" xr:uid="{B15B5F40-F9CD-409B-81F1-F82ADAF4A0DE}"/>
+    <hyperlink ref="Y29" r:id="rId50" xr:uid="{3FC0239B-1B1A-45BE-A8DF-0CB9EB8563B5}"/>
+    <hyperlink ref="AK29" r:id="rId51" xr:uid="{7683388B-7A93-4BCF-AC4B-105E648CB944}"/>
+    <hyperlink ref="Y30" r:id="rId52" xr:uid="{CEE9378B-96C4-45E6-900B-A310E3E2514B}"/>
+    <hyperlink ref="AK30" r:id="rId53" xr:uid="{F54632E6-67F0-4D4A-BD74-F73115C43080}"/>
+    <hyperlink ref="Y31" r:id="rId54" xr:uid="{96F24A52-AFFD-41C2-9FE3-F889BB96D951}"/>
+    <hyperlink ref="AK31" r:id="rId55" xr:uid="{9E401761-F8E4-4309-B022-84F78C4F116A}"/>
+    <hyperlink ref="Y32" r:id="rId56" xr:uid="{C08F5272-EF00-4B3B-8CDD-AF9CC8BDF178}"/>
+    <hyperlink ref="AK32" r:id="rId57" xr:uid="{98C5C3C0-E73E-41F5-BCB7-8474B5789AD4}"/>
+    <hyperlink ref="Y33" r:id="rId58" xr:uid="{A3AB47D7-FE23-4DA1-8553-8AB6B91CE814}"/>
+    <hyperlink ref="AK33" r:id="rId59" xr:uid="{BF649675-2CEE-45C6-9880-17F0393B5F30}"/>
+    <hyperlink ref="Y34" r:id="rId60" xr:uid="{1647D7CC-C37F-405A-9579-6DF9A2768CCA}"/>
+    <hyperlink ref="AK34" r:id="rId61" xr:uid="{B5FA98B4-C644-4BAA-8171-E0120F5DC36F}"/>
+    <hyperlink ref="M2:M12" r:id="rId62" display="Akil1@gmail.com" xr:uid="{929D6496-BE6F-4E53-93F9-8FFEABF32DAE}"/>
+    <hyperlink ref="M14" r:id="rId63" xr:uid="{E9AD27F6-26C4-4E76-BA69-A5A76F207BEE}"/>
+    <hyperlink ref="M15:M25" r:id="rId64" display="Akil1@gmail.com" xr:uid="{36B51F1D-18A1-488C-81FD-C0A1ED8641FA}"/>
+    <hyperlink ref="M28" r:id="rId65" xr:uid="{09928FD1-D94C-49AE-838D-8D046FB737EE}"/>
+    <hyperlink ref="M29:M34" r:id="rId66" display="Akil1@gmail.com" xr:uid="{B3DCDA3F-84DF-48DE-849E-9304F8C9D8FC}"/>
+    <hyperlink ref="M50" r:id="rId67" xr:uid="{97052255-EBC1-415C-A1D2-754ECA1271C3}"/>
+    <hyperlink ref="Y50" r:id="rId68" xr:uid="{9412028B-B0F2-42B9-8216-0D749A7D8496}"/>
+    <hyperlink ref="AK50" r:id="rId69" xr:uid="{DE1B70E9-792D-403F-8A39-E223491BA8D5}"/>
+    <hyperlink ref="Y48" r:id="rId70" xr:uid="{5F181D72-75EE-4D5D-BAFA-F8EED5AEF603}"/>
+    <hyperlink ref="AK48" r:id="rId71" xr:uid="{8F2C51C8-C387-4696-AE64-5A69D631F7B3}"/>
+    <hyperlink ref="Y49" r:id="rId72" xr:uid="{BBC365F5-D6C8-46D7-AB37-A9CFA6157F47}"/>
+    <hyperlink ref="AK49" r:id="rId73" xr:uid="{0D591A15-1CD6-4893-8577-3773454F23B3}"/>
+    <hyperlink ref="Y51" r:id="rId74" xr:uid="{F6B9E2EB-493F-4A85-9F67-5514A4A3F7E0}"/>
+    <hyperlink ref="AK51" r:id="rId75" xr:uid="{6FC6708B-A453-4C60-B6E8-0780569B1F74}"/>
+    <hyperlink ref="Y52" r:id="rId76" xr:uid="{9536FBBF-9917-42A7-ABB7-BC4BE1D81270}"/>
+    <hyperlink ref="AK52" r:id="rId77" xr:uid="{BB611DE9-BA2E-4489-8F88-982E95AA9CF8}"/>
+    <hyperlink ref="Y53" r:id="rId78" xr:uid="{38220748-F9E2-4165-B395-90D9F41D53D6}"/>
+    <hyperlink ref="AK53" r:id="rId79" xr:uid="{0F386890-6A52-41F9-ACF9-CC169E147A32}"/>
+    <hyperlink ref="Y54" r:id="rId80" xr:uid="{77F3D951-E0BE-4368-93EE-5CDAD46E28BD}"/>
+    <hyperlink ref="AK54" r:id="rId81" xr:uid="{5826E507-D07E-479A-8DC9-01FF3DD3354D}"/>
+    <hyperlink ref="Y55" r:id="rId82" xr:uid="{A1CBFE53-D448-4461-A9FC-9E71CBE0F2D2}"/>
+    <hyperlink ref="AK55" r:id="rId83" xr:uid="{82A5792E-383E-4944-8C02-682D4410431E}"/>
+    <hyperlink ref="Y56" r:id="rId84" xr:uid="{66AE590F-0428-48F2-A067-A3FA5448B021}"/>
+    <hyperlink ref="AK56" r:id="rId85" xr:uid="{66BC4973-1DCD-42F3-803A-E53E24FE6FCA}"/>
+    <hyperlink ref="Y57" r:id="rId86" xr:uid="{2891FE76-78E6-46E6-BC6A-4E7327F7B037}"/>
+    <hyperlink ref="AK57" r:id="rId87" xr:uid="{C2811BAA-9389-4897-AD7D-8FA76E6A429A}"/>
+    <hyperlink ref="Y58" r:id="rId88" xr:uid="{37B71C01-E63E-47A2-8718-A1CA7CC168CB}"/>
+    <hyperlink ref="AK58" r:id="rId89" xr:uid="{D7CF6A76-2304-43A5-88A7-4BE96828D44A}"/>
+    <hyperlink ref="Y59" r:id="rId90" xr:uid="{83079767-6BDF-43A1-87F4-F909DA6AD6ED}"/>
+    <hyperlink ref="AK59" r:id="rId91" xr:uid="{E4A1E187-F45A-4319-85A2-0EEDFA8FCB34}"/>
+    <hyperlink ref="Y60" r:id="rId92" xr:uid="{77C4EF27-8568-46E3-AF57-9A9F02069403}"/>
+    <hyperlink ref="AK60" r:id="rId93" xr:uid="{BAE205E4-0CC8-42EF-9DF2-E1DF1A120AF0}"/>
+    <hyperlink ref="Y61" r:id="rId94" xr:uid="{78A836DC-85AF-40B8-92B9-A3EF9D500F1B}"/>
+    <hyperlink ref="AK61" r:id="rId95" xr:uid="{628F44EB-74C2-45B8-9AA5-64AB92631C9D}"/>
+    <hyperlink ref="Y62" r:id="rId96" xr:uid="{462B8719-49D5-427E-B717-E65EDC6CDF47}"/>
+    <hyperlink ref="AK62" r:id="rId97" xr:uid="{E715C634-E5E9-4071-9D27-1723CEFE8A06}"/>
+    <hyperlink ref="AK63" r:id="rId98" xr:uid="{97FD4720-DDEF-49B6-A90B-06C9F1DB1092}"/>
+    <hyperlink ref="Y64" r:id="rId99" xr:uid="{F7345307-378D-4625-8DC2-F2D86CF574F2}"/>
+    <hyperlink ref="AK64" r:id="rId100" xr:uid="{D0DEAA5D-BFAD-4399-A664-263EB66F27A0}"/>
+    <hyperlink ref="Y65" r:id="rId101" xr:uid="{C6E78234-DC65-4456-8035-3F77798BF546}"/>
+    <hyperlink ref="AK65" r:id="rId102" xr:uid="{2899ED5F-0D81-4F7B-B095-C2B9A434DDCA}"/>
+    <hyperlink ref="Y66" r:id="rId103" xr:uid="{3514C58D-84EF-45DE-8EEC-95140C84BF06}"/>
+    <hyperlink ref="AK66" r:id="rId104" xr:uid="{5CCB5E94-9343-43BD-A306-C588420C70D6}"/>
+    <hyperlink ref="Y67" r:id="rId105" xr:uid="{94E892AD-5807-48F4-ABAB-B9F9ED52A09F}"/>
+    <hyperlink ref="AK67" r:id="rId106" xr:uid="{BB11FB57-78AC-4D4D-AF56-4F4798F41D2A}"/>
+    <hyperlink ref="Y68" r:id="rId107" xr:uid="{FE335810-E360-4600-8B0B-FE6FD87A5AFE}"/>
+    <hyperlink ref="AK68" r:id="rId108" xr:uid="{2ADF4CBA-1483-4164-A939-5FE72B5E3FB3}"/>
+    <hyperlink ref="Y69" r:id="rId109" xr:uid="{FC0DD89C-69F7-4EBF-BC4E-AB0BDA59C719}"/>
+    <hyperlink ref="AK69" r:id="rId110" xr:uid="{743F51BF-4109-4E75-9797-8682D3586010}"/>
+    <hyperlink ref="Y70" r:id="rId111" xr:uid="{D4E306BC-6C53-44C9-8E7F-54BE2ECA7AE9}"/>
+    <hyperlink ref="AK70" r:id="rId112" xr:uid="{AE707C6F-7C1A-4934-A11F-D11FCF6D6A7C}"/>
+    <hyperlink ref="Y71" r:id="rId113" xr:uid="{6675F9A8-13E8-4772-BBEF-61115F411264}"/>
+    <hyperlink ref="Y74" r:id="rId114" xr:uid="{AF72EF8E-4FC8-4917-9464-F55D54D7853B}"/>
+    <hyperlink ref="AK74" r:id="rId115" xr:uid="{3A17504F-46E2-4A14-91F5-E4EC44DA55BF}"/>
+    <hyperlink ref="Y75" r:id="rId116" xr:uid="{56C7F1C5-36A5-4BB5-8F39-D970AE9DD844}"/>
+    <hyperlink ref="AK75" r:id="rId117" xr:uid="{23F89B0F-CD2A-44AB-BA19-86F39DE523A5}"/>
+    <hyperlink ref="Y76" r:id="rId118" xr:uid="{8E528B4B-0C64-4D6D-83BE-6015D8C1D028}"/>
+    <hyperlink ref="AK76" r:id="rId119" xr:uid="{4C4F01D6-3169-4832-AB12-849A312FAC43}"/>
+    <hyperlink ref="Y77" r:id="rId120" xr:uid="{D0A241F8-63B8-4018-8B7F-058096E6E669}"/>
+    <hyperlink ref="AK77" r:id="rId121" xr:uid="{B267C01B-FC24-4568-820E-50465A95A8FA}"/>
+    <hyperlink ref="Y78" r:id="rId122" xr:uid="{6DD9D412-2C32-4370-B464-B6D631C77AFC}"/>
+    <hyperlink ref="AK78" r:id="rId123" xr:uid="{4E247189-DA62-4B52-ACE0-3777C56382B8}"/>
+    <hyperlink ref="Y79" r:id="rId124" xr:uid="{92A23468-2847-4F52-953E-505679976723}"/>
+    <hyperlink ref="AK79" r:id="rId125" xr:uid="{ABDFD90A-9ADD-4C21-ACE9-323D668FDFA7}"/>
+    <hyperlink ref="Y80" r:id="rId126" xr:uid="{572050FE-005D-446F-BE58-C43C23EEDD5A}"/>
+    <hyperlink ref="AK80" r:id="rId127" xr:uid="{ED695C0E-EA90-4AB6-B8C1-A485FE291F1A}"/>
+    <hyperlink ref="M48:M58" r:id="rId128" display="Akil1@gmail.com" xr:uid="{F02D54B7-DCA8-4081-B4A5-C8309EFBEDF8}"/>
+    <hyperlink ref="M60" r:id="rId129" xr:uid="{D9A42342-075A-4C85-AF9E-8826E7988653}"/>
+    <hyperlink ref="M61:M71" r:id="rId130" display="Akil1@gmail.com" xr:uid="{9111810B-7771-4DC1-8169-4CCF7F9CB12F}"/>
+    <hyperlink ref="M74" r:id="rId131" xr:uid="{36C8807B-637E-40F3-9AC3-11DAFC45B4EA}"/>
+    <hyperlink ref="M75:M80" r:id="rId132" display="Akil1@gmail.com" xr:uid="{B0C9F581-0A58-430D-954E-720DA33F9E60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId133"/>
 </worksheet>
 </file>
--- a/src/test/resources/FHEO-Testdata1.xlsx
+++ b/src/test/resources/FHEO-Testdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70D613-CA7A-48A6-8E0A-202D9E3DD367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1E7F2-9890-4E44-B101-4268CFCBFC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,7 +1159,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/src/test/resources/FHEO-Testdata1.xlsx
+++ b/src/test/resources/FHEO-Testdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1E7F2-9890-4E44-B101-4268CFCBFC94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255323E3-54EB-4A8C-8618-79E28D0FB3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="379">
   <si>
     <t>race</t>
   </si>
@@ -204,6 +204,18 @@
     <t>Akil1@gmail.com</t>
   </si>
   <si>
+    <t>Krish - Auto6</t>
+  </si>
+  <si>
+    <t>Smith6</t>
+  </si>
+  <si>
+    <t>John6</t>
+  </si>
+  <si>
+    <t>Updik6</t>
+  </si>
+  <si>
     <t>Krish - Auto1</t>
   </si>
   <si>
@@ -214,6 +226,948 @@
   </si>
   <si>
     <t>Updik1</t>
+  </si>
+  <si>
+    <t>Krish - Auto2</t>
+  </si>
+  <si>
+    <t>Smith2</t>
+  </si>
+  <si>
+    <t>John2</t>
+  </si>
+  <si>
+    <t>Updik2</t>
+  </si>
+  <si>
+    <t>Krish - Auto3</t>
+  </si>
+  <si>
+    <t>Smith3</t>
+  </si>
+  <si>
+    <t>John3</t>
+  </si>
+  <si>
+    <t>Updik3</t>
+  </si>
+  <si>
+    <t>Krish - Auto4</t>
+  </si>
+  <si>
+    <t>Smith4</t>
+  </si>
+  <si>
+    <t>John4</t>
+  </si>
+  <si>
+    <t>Updik4</t>
+  </si>
+  <si>
+    <t>Krish - Auto5</t>
+  </si>
+  <si>
+    <t>Smith5</t>
+  </si>
+  <si>
+    <t>John5</t>
+  </si>
+  <si>
+    <t>Updik5</t>
+  </si>
+  <si>
+    <t>This is the other reason description</t>
+  </si>
+  <si>
+    <t>Krish - Auto7</t>
+  </si>
+  <si>
+    <t>Smith7</t>
+  </si>
+  <si>
+    <t>John7</t>
+  </si>
+  <si>
+    <t>Updik7</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Smith8</t>
+  </si>
+  <si>
+    <t>John8</t>
+  </si>
+  <si>
+    <t>Updik8</t>
+  </si>
+  <si>
+    <t>Krish - Auto8</t>
+  </si>
+  <si>
+    <t>John9</t>
+  </si>
+  <si>
+    <t>Updik9</t>
+  </si>
+  <si>
+    <t>Krish - Auto9</t>
+  </si>
+  <si>
+    <t>Smith9</t>
+  </si>
+  <si>
+    <t>John10</t>
+  </si>
+  <si>
+    <t>Updik10</t>
+  </si>
+  <si>
+    <t>Krish - Auto10</t>
+  </si>
+  <si>
+    <t>Smith10</t>
+  </si>
+  <si>
+    <t>John11</t>
+  </si>
+  <si>
+    <t>Updik11</t>
+  </si>
+  <si>
+    <t>Krish - Auto11</t>
+  </si>
+  <si>
+    <t>Smith11</t>
+  </si>
+  <si>
+    <t>John12</t>
+  </si>
+  <si>
+    <t>Updik12</t>
+  </si>
+  <si>
+    <t>Krish - Auto12</t>
+  </si>
+  <si>
+    <t>Smith12</t>
+  </si>
+  <si>
+    <t>Colorado, CO.</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>John13</t>
+  </si>
+  <si>
+    <t>Updik13</t>
+  </si>
+  <si>
+    <t>Krish - Auto13</t>
+  </si>
+  <si>
+    <t>Smith13</t>
+  </si>
+  <si>
+    <t>1245 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>John14</t>
+  </si>
+  <si>
+    <t>Updik14</t>
+  </si>
+  <si>
+    <t>1247 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto14</t>
+  </si>
+  <si>
+    <t>Smith14</t>
+  </si>
+  <si>
+    <t>1246 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>John15</t>
+  </si>
+  <si>
+    <t>Updik15</t>
+  </si>
+  <si>
+    <t>1248 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto15</t>
+  </si>
+  <si>
+    <t>Smith15</t>
+  </si>
+  <si>
+    <t>John16</t>
+  </si>
+  <si>
+    <t>Updik16</t>
+  </si>
+  <si>
+    <t>1249 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto16</t>
+  </si>
+  <si>
+    <t>Smith16</t>
+  </si>
+  <si>
+    <t>John17</t>
+  </si>
+  <si>
+    <t>Updik17</t>
+  </si>
+  <si>
+    <t>1250 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto17</t>
+  </si>
+  <si>
+    <t>Smith17</t>
+  </si>
+  <si>
+    <t>John18</t>
+  </si>
+  <si>
+    <t>Updik18</t>
+  </si>
+  <si>
+    <t>1251 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto18</t>
+  </si>
+  <si>
+    <t>Smith18</t>
+  </si>
+  <si>
+    <t>John19</t>
+  </si>
+  <si>
+    <t>Updik19</t>
+  </si>
+  <si>
+    <t>1252 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto19</t>
+  </si>
+  <si>
+    <t>Smith19</t>
+  </si>
+  <si>
+    <t>John20</t>
+  </si>
+  <si>
+    <t>Updik20</t>
+  </si>
+  <si>
+    <t>1253 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto20</t>
+  </si>
+  <si>
+    <t>Smith20</t>
+  </si>
+  <si>
+    <t>John21</t>
+  </si>
+  <si>
+    <t>Updik21</t>
+  </si>
+  <si>
+    <t>1254 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto21</t>
+  </si>
+  <si>
+    <t>Smith21</t>
+  </si>
+  <si>
+    <t>John22</t>
+  </si>
+  <si>
+    <t>Updik22</t>
+  </si>
+  <si>
+    <t>1255 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto22</t>
+  </si>
+  <si>
+    <t>Smith22</t>
+  </si>
+  <si>
+    <t>John23</t>
+  </si>
+  <si>
+    <t>Updik23</t>
+  </si>
+  <si>
+    <t>1256 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto23</t>
+  </si>
+  <si>
+    <t>Smith23</t>
+  </si>
+  <si>
+    <t>John24</t>
+  </si>
+  <si>
+    <t>Updik24</t>
+  </si>
+  <si>
+    <t>1257 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>John25</t>
+  </si>
+  <si>
+    <t>Updik25</t>
+  </si>
+  <si>
+    <t>1258 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>John26</t>
+  </si>
+  <si>
+    <t>Updik26</t>
+  </si>
+  <si>
+    <t>1259 Alpine Avenue. Colorado. CO 80011.</t>
+  </si>
+  <si>
+    <t>Krish - Auto24</t>
+  </si>
+  <si>
+    <t>Smith24</t>
+  </si>
+  <si>
+    <t>John27</t>
+  </si>
+  <si>
+    <t>Updik27</t>
+  </si>
+  <si>
+    <t>Krish - Auto25</t>
+  </si>
+  <si>
+    <t>Smith25</t>
+  </si>
+  <si>
+    <t>John28</t>
+  </si>
+  <si>
+    <t>Updik28</t>
+  </si>
+  <si>
+    <t>Krish - Auto26</t>
+  </si>
+  <si>
+    <t>Smith26</t>
+  </si>
+  <si>
+    <t>John29</t>
+  </si>
+  <si>
+    <t>Updik29</t>
+  </si>
+  <si>
+    <t>Krish - Auto27</t>
+  </si>
+  <si>
+    <t>Smith27</t>
+  </si>
+  <si>
+    <t>John30</t>
+  </si>
+  <si>
+    <t>Updik30</t>
+  </si>
+  <si>
+    <t>Krish - Auto28</t>
+  </si>
+  <si>
+    <t>Smith28</t>
+  </si>
+  <si>
+    <t>John31</t>
+  </si>
+  <si>
+    <t>Updik31</t>
+  </si>
+  <si>
+    <t>Krish - Auto29</t>
+  </si>
+  <si>
+    <t>Smith29</t>
+  </si>
+  <si>
+    <t>John32</t>
+  </si>
+  <si>
+    <t>Updik32</t>
+  </si>
+  <si>
+    <t>Krish - Auto30</t>
+  </si>
+  <si>
+    <t>Smith30</t>
+  </si>
+  <si>
+    <t>John33</t>
+  </si>
+  <si>
+    <t>Updik33</t>
+  </si>
+  <si>
+    <t>John34</t>
+  </si>
+  <si>
+    <t>Updik34</t>
+  </si>
+  <si>
+    <t>John35</t>
+  </si>
+  <si>
+    <t>Updik35</t>
+  </si>
+  <si>
+    <t>John36</t>
+  </si>
+  <si>
+    <t>Updik36</t>
+  </si>
+  <si>
+    <t>John37</t>
+  </si>
+  <si>
+    <t>Updik37</t>
+  </si>
+  <si>
+    <t>John38</t>
+  </si>
+  <si>
+    <t>Updik38</t>
+  </si>
+  <si>
+    <t>John39</t>
+  </si>
+  <si>
+    <t>Updik39</t>
+  </si>
+  <si>
+    <t>John40</t>
+  </si>
+  <si>
+    <t>Updik40</t>
+  </si>
+  <si>
+    <t>John41</t>
+  </si>
+  <si>
+    <t>Updik41</t>
+  </si>
+  <si>
+    <t>John42</t>
+  </si>
+  <si>
+    <t>Updik42</t>
+  </si>
+  <si>
+    <t>John43</t>
+  </si>
+  <si>
+    <t>Updik43</t>
+  </si>
+  <si>
+    <t>John44</t>
+  </si>
+  <si>
+    <t>Updik44</t>
+  </si>
+  <si>
+    <t>John45</t>
+  </si>
+  <si>
+    <t>Updik45</t>
+  </si>
+  <si>
+    <t>John46</t>
+  </si>
+  <si>
+    <t>Updik46</t>
+  </si>
+  <si>
+    <t>Krish - Auto31</t>
+  </si>
+  <si>
+    <t>Smith31</t>
+  </si>
+  <si>
+    <t>John47</t>
+  </si>
+  <si>
+    <t>Updik47</t>
+  </si>
+  <si>
+    <t>Family member or friend</t>
+  </si>
+  <si>
+    <t>Krish - Auto32</t>
+  </si>
+  <si>
+    <t>Smith32</t>
+  </si>
+  <si>
+    <t>John48</t>
+  </si>
+  <si>
+    <t>Updik48</t>
+  </si>
+  <si>
+    <t>Krish - Auto33</t>
+  </si>
+  <si>
+    <t>Smith33</t>
+  </si>
+  <si>
+    <t>John49</t>
+  </si>
+  <si>
+    <t>Updik49</t>
+  </si>
+  <si>
+    <t>Krish - Auto34</t>
+  </si>
+  <si>
+    <t>Smith34</t>
+  </si>
+  <si>
+    <t>John50</t>
+  </si>
+  <si>
+    <t>Updik50</t>
+  </si>
+  <si>
+    <t>Krish - Auto35</t>
+  </si>
+  <si>
+    <t>Smith35</t>
+  </si>
+  <si>
+    <t>John51</t>
+  </si>
+  <si>
+    <t>Updik51</t>
+  </si>
+  <si>
+    <t>Krish - Auto36</t>
+  </si>
+  <si>
+    <t>Smith36</t>
+  </si>
+  <si>
+    <t>John52</t>
+  </si>
+  <si>
+    <t>Updik52</t>
+  </si>
+  <si>
+    <t>Krish - Auto37</t>
+  </si>
+  <si>
+    <t>Smith37</t>
+  </si>
+  <si>
+    <t>John53</t>
+  </si>
+  <si>
+    <t>Updik53</t>
+  </si>
+  <si>
+    <t>Smith38</t>
+  </si>
+  <si>
+    <t>John54</t>
+  </si>
+  <si>
+    <t>Updik54</t>
+  </si>
+  <si>
+    <t>Krish - Auto38</t>
+  </si>
+  <si>
+    <t>John55</t>
+  </si>
+  <si>
+    <t>Updik55</t>
+  </si>
+  <si>
+    <t>Krish - Auto39</t>
+  </si>
+  <si>
+    <t>Smith39</t>
+  </si>
+  <si>
+    <t>John56</t>
+  </si>
+  <si>
+    <t>Updik56</t>
+  </si>
+  <si>
+    <t>Krish - Auto40</t>
+  </si>
+  <si>
+    <t>Smith40</t>
+  </si>
+  <si>
+    <t>John57</t>
+  </si>
+  <si>
+    <t>Updik57</t>
+  </si>
+  <si>
+    <t>Krish - Auto41</t>
+  </si>
+  <si>
+    <t>Smith41</t>
+  </si>
+  <si>
+    <t>John58</t>
+  </si>
+  <si>
+    <t>Updik58</t>
+  </si>
+  <si>
+    <t>Krish - Auto42</t>
+  </si>
+  <si>
+    <t>Smith42</t>
+  </si>
+  <si>
+    <t>John59</t>
+  </si>
+  <si>
+    <t>Updik59</t>
+  </si>
+  <si>
+    <t>Krish - Auto43</t>
+  </si>
+  <si>
+    <t>Smith43</t>
+  </si>
+  <si>
+    <t>John60</t>
+  </si>
+  <si>
+    <t>Updik60</t>
+  </si>
+  <si>
+    <t>Krish - Auto44</t>
+  </si>
+  <si>
+    <t>Smith44</t>
+  </si>
+  <si>
+    <t>John61</t>
+  </si>
+  <si>
+    <t>Updik61</t>
+  </si>
+  <si>
+    <t>Krish - Auto45</t>
+  </si>
+  <si>
+    <t>Smith45</t>
+  </si>
+  <si>
+    <t>John62</t>
+  </si>
+  <si>
+    <t>Updik62</t>
+  </si>
+  <si>
+    <t>Krish - Auto46</t>
+  </si>
+  <si>
+    <t>Smith46</t>
+  </si>
+  <si>
+    <t>John63</t>
+  </si>
+  <si>
+    <t>Updik63</t>
+  </si>
+  <si>
+    <t>Krish - Auto47</t>
+  </si>
+  <si>
+    <t>Smith47</t>
+  </si>
+  <si>
+    <t>John64</t>
+  </si>
+  <si>
+    <t>Updik64</t>
+  </si>
+  <si>
+    <t>Krish - Auto48</t>
+  </si>
+  <si>
+    <t>Smith48</t>
+  </si>
+  <si>
+    <t>John65</t>
+  </si>
+  <si>
+    <t>Updik65</t>
+  </si>
+  <si>
+    <t>Krish - Auto49</t>
+  </si>
+  <si>
+    <t>Smith49</t>
+  </si>
+  <si>
+    <t>John66</t>
+  </si>
+  <si>
+    <t>Updik66</t>
+  </si>
+  <si>
+    <t>Krish - Auto50</t>
+  </si>
+  <si>
+    <t>Smith50</t>
+  </si>
+  <si>
+    <t>John67</t>
+  </si>
+  <si>
+    <t>Updik67</t>
+  </si>
+  <si>
+    <t>Krish - Auto51</t>
+  </si>
+  <si>
+    <t>Smith51</t>
+  </si>
+  <si>
+    <t>John68</t>
+  </si>
+  <si>
+    <t>Updik68</t>
+  </si>
+  <si>
+    <t>Krish - Auto52</t>
+  </si>
+  <si>
+    <t>Smith52</t>
+  </si>
+  <si>
+    <t>John69</t>
+  </si>
+  <si>
+    <t>Updik69</t>
+  </si>
+  <si>
+    <t>Krish - Auto53</t>
+  </si>
+  <si>
+    <t>Smith53</t>
+  </si>
+  <si>
+    <t>John70</t>
+  </si>
+  <si>
+    <t>Updik70</t>
+  </si>
+  <si>
+    <t>John71</t>
+  </si>
+  <si>
+    <t>Updik71</t>
+  </si>
+  <si>
+    <t>John72</t>
+  </si>
+  <si>
+    <t>Updik72</t>
+  </si>
+  <si>
+    <t>Krish - Auto54</t>
+  </si>
+  <si>
+    <t>Smith54</t>
+  </si>
+  <si>
+    <t>John73</t>
+  </si>
+  <si>
+    <t>Updik73</t>
+  </si>
+  <si>
+    <t>Krish - Auto55</t>
+  </si>
+  <si>
+    <t>Smith55</t>
+  </si>
+  <si>
+    <t>John74</t>
+  </si>
+  <si>
+    <t>Updik74</t>
+  </si>
+  <si>
+    <t>Krish - Auto56</t>
+  </si>
+  <si>
+    <t>Smith56</t>
+  </si>
+  <si>
+    <t>John75</t>
+  </si>
+  <si>
+    <t>Updik75</t>
+  </si>
+  <si>
+    <t>Krish - Auto57</t>
+  </si>
+  <si>
+    <t>Smith57</t>
+  </si>
+  <si>
+    <t>John76</t>
+  </si>
+  <si>
+    <t>Updik76</t>
+  </si>
+  <si>
+    <t>Krish - Auto58</t>
+  </si>
+  <si>
+    <t>Smith58</t>
+  </si>
+  <si>
+    <t>John77</t>
+  </si>
+  <si>
+    <t>Updik77</t>
+  </si>
+  <si>
+    <t>Krish - Auto59</t>
+  </si>
+  <si>
+    <t>Smith59</t>
+  </si>
+  <si>
+    <t>John78</t>
+  </si>
+  <si>
+    <t>Updik78</t>
+  </si>
+  <si>
+    <t>Krish - Auto60</t>
+  </si>
+  <si>
+    <t>Smith60</t>
+  </si>
+  <si>
+    <t>John79</t>
+  </si>
+  <si>
+    <t>Updik79</t>
+  </si>
+  <si>
+    <t>John80</t>
+  </si>
+  <si>
+    <t>Updik80</t>
+  </si>
+  <si>
+    <t>John81</t>
+  </si>
+  <si>
+    <t>Updik81</t>
+  </si>
+  <si>
+    <t>John82</t>
+  </si>
+  <si>
+    <t>Updik82</t>
+  </si>
+  <si>
+    <t>John83</t>
+  </si>
+  <si>
+    <t>Updik83</t>
+  </si>
+  <si>
+    <t>John84</t>
+  </si>
+  <si>
+    <t>Updik84</t>
+  </si>
+  <si>
+    <t>John85</t>
+  </si>
+  <si>
+    <t>Updik85</t>
+  </si>
+  <si>
+    <t>John86</t>
+  </si>
+  <si>
+    <t>Updik86</t>
+  </si>
+  <si>
+    <t>John87</t>
+  </si>
+  <si>
+    <t>Updik87</t>
+  </si>
+  <si>
+    <t>John88</t>
+  </si>
+  <si>
+    <t>Updik88</t>
+  </si>
+  <si>
+    <t>John89</t>
+  </si>
+  <si>
+    <t>Updik89</t>
+  </si>
+  <si>
+    <t>John90</t>
+  </si>
+  <si>
+    <t>Updik90</t>
   </si>
 </sst>
 </file>
@@ -751,7 +1705,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -792,6 +1746,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1153,13 +2113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD91"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1340,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
@@ -1379,10 +2339,10 @@
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="X2" s="13">
         <v>2224568749</v>
@@ -1426,15 +2386,8845 @@
       <c r="AK2" s="15" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK4" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK5" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK12" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="X13" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK13" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK15" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" s="19"/>
+      <c r="T16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK17" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X18" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK18" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X19" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK19" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X20" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK20" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X21" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK21" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S22" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X22" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK22" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S23" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK23" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S24" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="X24" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="X25" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK25" s="21"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="X26" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="X27" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="X28" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ28" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK28" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="X29" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF29" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ29" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK29" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ30" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK30" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="X31" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG31" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ31" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK31" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="X32" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI32" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ32" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK32" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG33" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ33" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK33" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="X34" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG34" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ34" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK34" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="X35" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="19"/>
+      <c r="T36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="X36" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="X37" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="19"/>
+      <c r="T38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="X38" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="19"/>
+      <c r="T39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="X39" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD39" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="19"/>
+      <c r="T40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="X40" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="19"/>
+      <c r="T41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="X41" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S42" s="19"/>
+      <c r="T42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="X42" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="19"/>
+      <c r="T43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="X43" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="19"/>
+      <c r="T44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="X44" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD44" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE44" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" s="19"/>
+      <c r="T45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="X45" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE45" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" s="19"/>
+      <c r="T46" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="X46" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD46" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="19"/>
+      <c r="T47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V47" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="X47" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD47" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="X48" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y48" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD48" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG48" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH48" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ48" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK48" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V49" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="X49" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y49" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z49" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG49" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH49" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ49" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK49" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="X50" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z50" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE50" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH50" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ50" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK50" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S51" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="X51" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z51" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE51" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG51" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH51" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ51" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK51" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S52" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V52" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="X52" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y52" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z52" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG52" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH52" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ52" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK52" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V53" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="X53" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z53" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB53" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC53" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE53" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG53" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH53" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ53" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK53" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S54" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="X54" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y54" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z54" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD54" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH54" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ54" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK54" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="X55" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y55" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z55" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD55" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG55" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH55" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ55" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK55" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S56" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V56" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="X56" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y56" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z56" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG56" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH56" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ56" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK56" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K57" s="19"/>
+      <c r="L57" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S57" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="X57" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y57" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z57" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD57" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH57" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ57" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK57" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="19"/>
+      <c r="M58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="X58" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z58" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD58" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF58" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG58" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH58" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ58" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK58" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M59" s="20"/>
+      <c r="N59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S59" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V59" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="X59" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y59" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z59" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB59" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD59" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE59" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF59" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG59" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH59" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ59" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK59" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O60" s="19"/>
+      <c r="P60" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S60" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="X60" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y60" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z60" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB60" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE60" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF60" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG60" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH60" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ60" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK60" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S61" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V61" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="X61" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y61" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z61" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB61" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC61" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD61" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE61" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF61" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG61" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH61" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ61" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK61" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P62" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S62" s="19"/>
+      <c r="T62" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="X62" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z62" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB62" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC62" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD62" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE62" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF62" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG62" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH62" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ62" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK62" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S63" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T63" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="X63" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB63" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD63" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF63" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG63" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH63" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ63" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK63" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P64" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S64" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V64" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="X64" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y64" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB64" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD64" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE64" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF64" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG64" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH64" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ64" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK64" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S65" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="X65" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y65" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z65" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD65" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE65" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF65" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG65" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH65" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ65" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK65" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P66" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S66" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V66" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="X66" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z66" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC66" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD66" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE66" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH66" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ66" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK66" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S67" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V67" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="X67" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y67" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z67" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB67" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC67" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD67" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE67" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG67" s="23"/>
+      <c r="AH67" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ67" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK67" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P68" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S68" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V68" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="X68" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y68" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z68" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB68" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC68" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD68" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE68" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF68" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG68" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH68" s="23"/>
+      <c r="AJ68" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK68" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="P69" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S69" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V69" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="X69" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y69" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z69" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB69" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC69" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD69" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE69" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF69" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG69" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH69" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK69" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P70" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S70" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V70" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="X70" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y70" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z70" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB70" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC70" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD70" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE70" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF70" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG70" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH70" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ70" s="19"/>
+      <c r="AK70" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" s="8">
+        <v>1245</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S71" s="8">
+        <v>80011</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="X71" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y71" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z71" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB71" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC71" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD71" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE71" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF71" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG71" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH71" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ71" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK71" s="21"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S72" s="19"/>
+      <c r="T72" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="X72" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE72" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF72" s="23"/>
+      <c r="AG72" s="23"/>
+      <c r="AH72" s="23"/>
+      <c r="AI72" s="23"/>
+      <c r="AJ72" s="23"/>
+      <c r="AK72" s="23"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S73" s="19"/>
+      <c r="T73" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V73" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="W73" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="X73" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD73" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE73" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF73" s="23"/>
+      <c r="AG73" s="23"/>
+      <c r="AH73" s="23"/>
+      <c r="AI73" s="23"/>
+      <c r="AJ73" s="23"/>
+      <c r="AK73" s="23"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S74" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T74" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="X74" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y74" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z74" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA74" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB74" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE74" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF74" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG74" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH74" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ74" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK74" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S75" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T75" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="X75" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y75" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z75" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB75" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC75" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD75" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE75" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF75" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG75" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH75" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ75" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK75" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S76" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T76" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V76" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="X76" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y76" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z76" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB76" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD76" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE76" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF76" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG76" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH76" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ76" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK76" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S77" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V77" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="X77" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y77" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z77" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA77" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB77" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC77" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD77" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE77" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF77" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG77" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH77" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ77" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK77" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S78" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T78" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V78" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="X78" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y78" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z78" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB78" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC78" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD78" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE78" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF78" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG78" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH78" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ78" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK78" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P79" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S79" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V79" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="W79" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="X79" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y79" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z79" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA79" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB79" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD79" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE79" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF79" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG79" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH79" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ79" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK79" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="8">
+        <v>8009098909</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="8">
+        <v>16677</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S80" s="8">
+        <v>20006</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="X80" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y80" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z80" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB80" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC80" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE80" s="13">
+        <v>20006</v>
+      </c>
+      <c r="AF80" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG80" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH80" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ80" s="8">
+        <v>8009098908</v>
+      </c>
+      <c r="AK80" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S81" s="19"/>
+      <c r="T81" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V81" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X81" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD81" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE81" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF81" s="23"/>
+      <c r="AG81" s="23"/>
+      <c r="AH81" s="23"/>
+      <c r="AI81" s="23"/>
+      <c r="AJ81" s="23"/>
+      <c r="AK81" s="23"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S82" s="19"/>
+      <c r="T82" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V82" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="X82" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y82" s="19"/>
+      <c r="Z82" s="19"/>
+      <c r="AA82" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD82" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE82" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF82" s="23"/>
+      <c r="AG82" s="23"/>
+      <c r="AH82" s="23"/>
+      <c r="AI82" s="23"/>
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="23"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S83" s="19"/>
+      <c r="T83" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V83" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="X83" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y83" s="19"/>
+      <c r="Z83" s="19"/>
+      <c r="AA83" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB83" s="19"/>
+      <c r="AC83" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD83" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE83" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="23"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="23"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S84" s="19"/>
+      <c r="T84" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V84" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="X84" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="19"/>
+      <c r="AA84" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD84" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE84" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S85" s="19"/>
+      <c r="T85" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V85" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="W85" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="X85" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y85" s="19"/>
+      <c r="Z85" s="19"/>
+      <c r="AA85" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD85" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE85" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="23"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S86" s="19"/>
+      <c r="T86" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="X86" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD86" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE86" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="23"/>
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="23"/>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R87" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S87" s="19"/>
+      <c r="T87" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V87" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="W87" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="X87" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD87" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE87" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S88" s="19"/>
+      <c r="T88" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V88" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="W88" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="X88" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y88" s="19"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD88" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE88" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S89" s="19"/>
+      <c r="T89" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V89" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="W89" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="X89" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
+      <c r="AA89" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD89" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE89" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="23"/>
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="23"/>
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S90" s="19"/>
+      <c r="T90" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V90" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="W90" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="X90" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y90" s="19"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD90" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE90" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+      <c r="AJ90" s="23"/>
+      <c r="AK90" s="23"/>
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S91" s="19"/>
+      <c r="T91" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V91" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="W91" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="X91" s="13">
+        <v>2224568749</v>
+      </c>
+      <c r="Y91" s="19"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD91" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE91" s="13">
+        <v>80011</v>
+      </c>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{ACD5ACCB-91B4-4F38-98EE-3943435B7AB2}"/>
-    <hyperlink ref="AK2" r:id="rId2" xr:uid="{B138A9C9-81CE-4122-8F9E-252A9BB8D5A5}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{929D6496-BE6F-4E53-93F9-8FFEABF32DAE}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{CAA13351-402D-4783-8C5B-8FE0CC7588AE}"/>
+    <hyperlink ref="Y4" r:id="rId2" xr:uid="{5448E915-1A79-49D2-9057-F3B4D13C5255}"/>
+    <hyperlink ref="AK4" r:id="rId3" xr:uid="{E886EA26-75C5-46BF-B30B-CE07E2BE3627}"/>
+    <hyperlink ref="Y2" r:id="rId4" xr:uid="{ACD5ACCB-91B4-4F38-98EE-3943435B7AB2}"/>
+    <hyperlink ref="AK2" r:id="rId5" xr:uid="{B138A9C9-81CE-4122-8F9E-252A9BB8D5A5}"/>
+    <hyperlink ref="Y3" r:id="rId6" xr:uid="{7E7B17DE-00BC-470D-AC31-29C9714DA1FC}"/>
+    <hyperlink ref="AK3" r:id="rId7" xr:uid="{4F9D9D9B-54B7-44C3-BC69-740C1CE66A7B}"/>
+    <hyperlink ref="Y5" r:id="rId8" xr:uid="{72750343-DC7B-401D-BDD5-216025353CD7}"/>
+    <hyperlink ref="AK5" r:id="rId9" xr:uid="{D89279B4-F403-4F53-8474-F0E60545A91E}"/>
+    <hyperlink ref="Y6" r:id="rId10" xr:uid="{70654827-A647-410F-B68F-AFB34092AD9D}"/>
+    <hyperlink ref="AK6" r:id="rId11" xr:uid="{9E5C4682-AF90-4356-8474-BED7EDEA086C}"/>
+    <hyperlink ref="Y7" r:id="rId12" xr:uid="{2DA04658-443A-45F9-BCA5-C29F16CAD363}"/>
+    <hyperlink ref="AK7" r:id="rId13" xr:uid="{2A97ABC5-C790-4DD4-AA01-104F25A58C9A}"/>
+    <hyperlink ref="Y8" r:id="rId14" xr:uid="{4FFDFC20-54C7-4670-8904-85858C2B8459}"/>
+    <hyperlink ref="AK8" r:id="rId15" xr:uid="{6A977641-799F-4CEC-9893-374600A5CD19}"/>
+    <hyperlink ref="Y9" r:id="rId16" xr:uid="{EDCDE153-9543-4DCD-BDBE-55D0660F76E8}"/>
+    <hyperlink ref="AK9" r:id="rId17" xr:uid="{98BDC053-8F25-4F8C-B311-C1C84939BDA2}"/>
+    <hyperlink ref="Y10" r:id="rId18" xr:uid="{4099DD2F-5C6F-48E2-8F38-D717D2C6452E}"/>
+    <hyperlink ref="AK10" r:id="rId19" xr:uid="{B4649735-DC20-4F94-8415-552E5236D305}"/>
+    <hyperlink ref="Y11" r:id="rId20" xr:uid="{47F6BB89-6D84-4385-BEB9-A924F18AD1FD}"/>
+    <hyperlink ref="AK11" r:id="rId21" xr:uid="{9E40590D-90F4-4C47-9AD9-D1FE6A237483}"/>
+    <hyperlink ref="Y12" r:id="rId22" xr:uid="{362F6D76-0048-4311-82E1-A41A0E0676C9}"/>
+    <hyperlink ref="AK12" r:id="rId23" xr:uid="{5E79598E-5CAF-4F4B-B992-BD8D694E532D}"/>
+    <hyperlink ref="Y13" r:id="rId24" xr:uid="{1C2BD64E-5D59-4C74-9A33-D7D1DC762474}"/>
+    <hyperlink ref="AK13" r:id="rId25" xr:uid="{A5CC0010-7FF9-414C-A279-BF0E71DB8EB4}"/>
+    <hyperlink ref="Y14" r:id="rId26" xr:uid="{BC70B155-2C16-460B-AE5A-06CF2B4BB24A}"/>
+    <hyperlink ref="AK14" r:id="rId27" xr:uid="{44EC540B-39DF-46EB-8016-EFFCF363B860}"/>
+    <hyperlink ref="Y15" r:id="rId28" xr:uid="{6D3BE510-B423-4CA9-A502-74FC7931262E}"/>
+    <hyperlink ref="AK15" r:id="rId29" xr:uid="{E3BDE8E6-FCA3-4F53-A0EF-554D08305DF7}"/>
+    <hyperlink ref="Y16" r:id="rId30" xr:uid="{792DCFF1-6B92-45E8-BB40-F22E3DD5FA1D}"/>
+    <hyperlink ref="AK16" r:id="rId31" xr:uid="{A8D4ADEC-35F8-4285-AA06-E0F09B633672}"/>
+    <hyperlink ref="AK17" r:id="rId32" xr:uid="{CC9EAF9F-B9F7-4620-BAE8-9A3AB963DABB}"/>
+    <hyperlink ref="Y18" r:id="rId33" xr:uid="{8CB32878-D5D1-4166-B0DB-E8C271C502E3}"/>
+    <hyperlink ref="AK18" r:id="rId34" xr:uid="{3D80C000-0EF1-4758-88EA-BFC72496067E}"/>
+    <hyperlink ref="Y19" r:id="rId35" xr:uid="{6C5C4BDE-E066-4D42-9BDC-D7666DB441DB}"/>
+    <hyperlink ref="AK19" r:id="rId36" xr:uid="{16D89B22-A47A-43B6-8A0D-1A5075113720}"/>
+    <hyperlink ref="Y20" r:id="rId37" xr:uid="{AD8C4B42-E939-4D46-A9F9-9FE199FAF82D}"/>
+    <hyperlink ref="AK20" r:id="rId38" xr:uid="{69931E76-36E3-43B2-8514-E13D02BB7D10}"/>
+    <hyperlink ref="Y21" r:id="rId39" xr:uid="{01BF55AD-0D82-4A7A-BF65-664E0BD6094E}"/>
+    <hyperlink ref="AK21" r:id="rId40" xr:uid="{3DC69BEC-8434-4FA6-80F7-F61AECCBCEA6}"/>
+    <hyperlink ref="Y22" r:id="rId41" xr:uid="{00314F88-A367-46AA-84AD-5178DCD68A9E}"/>
+    <hyperlink ref="AK22" r:id="rId42" xr:uid="{4B9AF77A-D63B-45D7-B31F-5800101BED85}"/>
+    <hyperlink ref="Y23" r:id="rId43" xr:uid="{8DF425B3-69BC-4AC8-9975-4CAD27CDE209}"/>
+    <hyperlink ref="AK23" r:id="rId44" xr:uid="{A772C338-07FE-469D-9BF1-242E822B0FD0}"/>
+    <hyperlink ref="Y24" r:id="rId45" xr:uid="{2ADC2E99-3953-4F50-AA93-CB843BA18CAA}"/>
+    <hyperlink ref="AK24" r:id="rId46" xr:uid="{0550E6B7-28CF-4249-AF64-8FF594DEB9D9}"/>
+    <hyperlink ref="Y25" r:id="rId47" xr:uid="{4427AE4E-CDE8-46DE-95BB-55D68A60104D}"/>
+    <hyperlink ref="Y28" r:id="rId48" xr:uid="{EF070CA9-2AB7-4787-9C71-CC5A6BEA5DD4}"/>
+    <hyperlink ref="AK28" r:id="rId49" xr:uid="{B15B5F40-F9CD-409B-81F1-F82ADAF4A0DE}"/>
+    <hyperlink ref="Y29" r:id="rId50" xr:uid="{3FC0239B-1B1A-45BE-A8DF-0CB9EB8563B5}"/>
+    <hyperlink ref="AK29" r:id="rId51" xr:uid="{7683388B-7A93-4BCF-AC4B-105E648CB944}"/>
+    <hyperlink ref="Y30" r:id="rId52" xr:uid="{CEE9378B-96C4-45E6-900B-A310E3E2514B}"/>
+    <hyperlink ref="AK30" r:id="rId53" xr:uid="{F54632E6-67F0-4D4A-BD74-F73115C43080}"/>
+    <hyperlink ref="Y31" r:id="rId54" xr:uid="{96F24A52-AFFD-41C2-9FE3-F889BB96D951}"/>
+    <hyperlink ref="AK31" r:id="rId55" xr:uid="{9E401761-F8E4-4309-B022-84F78C4F116A}"/>
+    <hyperlink ref="Y32" r:id="rId56" xr:uid="{C08F5272-EF00-4B3B-8CDD-AF9CC8BDF178}"/>
+    <hyperlink ref="AK32" r:id="rId57" xr:uid="{98C5C3C0-E73E-41F5-BCB7-8474B5789AD4}"/>
+    <hyperlink ref="Y33" r:id="rId58" xr:uid="{A3AB47D7-FE23-4DA1-8553-8AB6B91CE814}"/>
+    <hyperlink ref="AK33" r:id="rId59" xr:uid="{BF649675-2CEE-45C6-9880-17F0393B5F30}"/>
+    <hyperlink ref="Y34" r:id="rId60" xr:uid="{1647D7CC-C37F-405A-9579-6DF9A2768CCA}"/>
+    <hyperlink ref="AK34" r:id="rId61" xr:uid="{B5FA98B4-C644-4BAA-8171-E0120F5DC36F}"/>
+    <hyperlink ref="M2:M12" r:id="rId62" display="Akil1@gmail.com" xr:uid="{929D6496-BE6F-4E53-93F9-8FFEABF32DAE}"/>
+    <hyperlink ref="M14" r:id="rId63" xr:uid="{E9AD27F6-26C4-4E76-BA69-A5A76F207BEE}"/>
+    <hyperlink ref="M15:M25" r:id="rId64" display="Akil1@gmail.com" xr:uid="{36B51F1D-18A1-488C-81FD-C0A1ED8641FA}"/>
+    <hyperlink ref="M28" r:id="rId65" xr:uid="{09928FD1-D94C-49AE-838D-8D046FB737EE}"/>
+    <hyperlink ref="M29:M34" r:id="rId66" display="Akil1@gmail.com" xr:uid="{B3DCDA3F-84DF-48DE-849E-9304F8C9D8FC}"/>
+    <hyperlink ref="M50" r:id="rId67" xr:uid="{97052255-EBC1-415C-A1D2-754ECA1271C3}"/>
+    <hyperlink ref="Y50" r:id="rId68" xr:uid="{9412028B-B0F2-42B9-8216-0D749A7D8496}"/>
+    <hyperlink ref="AK50" r:id="rId69" xr:uid="{DE1B70E9-792D-403F-8A39-E223491BA8D5}"/>
+    <hyperlink ref="Y48" r:id="rId70" xr:uid="{5F181D72-75EE-4D5D-BAFA-F8EED5AEF603}"/>
+    <hyperlink ref="AK48" r:id="rId71" xr:uid="{8F2C51C8-C387-4696-AE64-5A69D631F7B3}"/>
+    <hyperlink ref="Y49" r:id="rId72" xr:uid="{BBC365F5-D6C8-46D7-AB37-A9CFA6157F47}"/>
+    <hyperlink ref="AK49" r:id="rId73" xr:uid="{0D591A15-1CD6-4893-8577-3773454F23B3}"/>
+    <hyperlink ref="Y51" r:id="rId74" xr:uid="{F6B9E2EB-493F-4A85-9F67-5514A4A3F7E0}"/>
+    <hyperlink ref="AK51" r:id="rId75" xr:uid="{6FC6708B-A453-4C60-B6E8-0780569B1F74}"/>
+    <hyperlink ref="Y52" r:id="rId76" xr:uid="{9536FBBF-9917-42A7-ABB7-BC4BE1D81270}"/>
+    <hyperlink ref="AK52" r:id="rId77" xr:uid="{BB611DE9-BA2E-4489-8F88-982E95AA9CF8}"/>
+    <hyperlink ref="Y53" r:id="rId78" xr:uid="{38220748-F9E2-4165-B395-90D9F41D53D6}"/>
+    <hyperlink ref="AK53" r:id="rId79" xr:uid="{0F386890-6A52-41F9-ACF9-CC169E147A32}"/>
+    <hyperlink ref="Y54" r:id="rId80" xr:uid="{77F3D951-E0BE-4368-93EE-5CDAD46E28BD}"/>
+    <hyperlink ref="AK54" r:id="rId81" xr:uid="{5826E507-D07E-479A-8DC9-01FF3DD3354D}"/>
+    <hyperlink ref="Y55" r:id="rId82" xr:uid="{A1CBFE53-D448-4461-A9FC-9E71CBE0F2D2}"/>
+    <hyperlink ref="AK55" r:id="rId83" xr:uid="{82A5792E-383E-4944-8C02-682D4410431E}"/>
+    <hyperlink ref="Y56" r:id="rId84" xr:uid="{66AE590F-0428-48F2-A067-A3FA5448B021}"/>
+    <hyperlink ref="AK56" r:id="rId85" xr:uid="{66BC4973-1DCD-42F3-803A-E53E24FE6FCA}"/>
+    <hyperlink ref="Y57" r:id="rId86" xr:uid="{2891FE76-78E6-46E6-BC6A-4E7327F7B037}"/>
+    <hyperlink ref="AK57" r:id="rId87" xr:uid="{C2811BAA-9389-4897-AD7D-8FA76E6A429A}"/>
+    <hyperlink ref="Y58" r:id="rId88" xr:uid="{37B71C01-E63E-47A2-8718-A1CA7CC168CB}"/>
+    <hyperlink ref="AK58" r:id="rId89" xr:uid="{D7CF6A76-2304-43A5-88A7-4BE96828D44A}"/>
+    <hyperlink ref="Y59" r:id="rId90" xr:uid="{83079767-6BDF-43A1-87F4-F909DA6AD6ED}"/>
+    <hyperlink ref="AK59" r:id="rId91" xr:uid="{E4A1E187-F45A-4319-85A2-0EEDFA8FCB34}"/>
+    <hyperlink ref="Y60" r:id="rId92" xr:uid="{77C4EF27-8568-46E3-AF57-9A9F02069403}"/>
+    <hyperlink ref="AK60" r:id="rId93" xr:uid="{BAE205E4-0CC8-42EF-9DF2-E1DF1A120AF0}"/>
+    <hyperlink ref="Y61" r:id="rId94" xr:uid="{78A836DC-85AF-40B8-92B9-A3EF9D500F1B}"/>
+    <hyperlink ref="AK61" r:id="rId95" xr:uid="{628F44EB-74C2-45B8-9AA5-64AB92631C9D}"/>
+    <hyperlink ref="Y62" r:id="rId96" xr:uid="{462B8719-49D5-427E-B717-E65EDC6CDF47}"/>
+    <hyperlink ref="AK62" r:id="rId97" xr:uid="{E715C634-E5E9-4071-9D27-1723CEFE8A06}"/>
+    <hyperlink ref="AK63" r:id="rId98" xr:uid="{97FD4720-DDEF-49B6-A90B-06C9F1DB1092}"/>
+    <hyperlink ref="Y64" r:id="rId99" xr:uid="{F7345307-378D-4625-8DC2-F2D86CF574F2}"/>
+    <hyperlink ref="AK64" r:id="rId100" xr:uid="{D0DEAA5D-BFAD-4399-A664-263EB66F27A0}"/>
+    <hyperlink ref="Y65" r:id="rId101" xr:uid="{C6E78234-DC65-4456-8035-3F77798BF546}"/>
+    <hyperlink ref="AK65" r:id="rId102" xr:uid="{2899ED5F-0D81-4F7B-B095-C2B9A434DDCA}"/>
+    <hyperlink ref="Y66" r:id="rId103" xr:uid="{3514C58D-84EF-45DE-8EEC-95140C84BF06}"/>
+    <hyperlink ref="AK66" r:id="rId104" xr:uid="{5CCB5E94-9343-43BD-A306-C588420C70D6}"/>
+    <hyperlink ref="Y67" r:id="rId105" xr:uid="{94E892AD-5807-48F4-ABAB-B9F9ED52A09F}"/>
+    <hyperlink ref="AK67" r:id="rId106" xr:uid="{BB11FB57-78AC-4D4D-AF56-4F4798F41D2A}"/>
+    <hyperlink ref="Y68" r:id="rId107" xr:uid="{FE335810-E360-4600-8B0B-FE6FD87A5AFE}"/>
+    <hyperlink ref="AK68" r:id="rId108" xr:uid="{2ADF4CBA-1483-4164-A939-5FE72B5E3FB3}"/>
+    <hyperlink ref="Y69" r:id="rId109" xr:uid="{FC0DD89C-69F7-4EBF-BC4E-AB0BDA59C719}"/>
+    <hyperlink ref="AK69" r:id="rId110" xr:uid="{743F51BF-4109-4E75-9797-8682D3586010}"/>
+    <hyperlink ref="Y70" r:id="rId111" xr:uid="{D4E306BC-6C53-44C9-8E7F-54BE2ECA7AE9}"/>
+    <hyperlink ref="AK70" r:id="rId112" xr:uid="{AE707C6F-7C1A-4934-A11F-D11FCF6D6A7C}"/>
+    <hyperlink ref="Y71" r:id="rId113" xr:uid="{6675F9A8-13E8-4772-BBEF-61115F411264}"/>
+    <hyperlink ref="Y74" r:id="rId114" xr:uid="{AF72EF8E-4FC8-4917-9464-F55D54D7853B}"/>
+    <hyperlink ref="AK74" r:id="rId115" xr:uid="{3A17504F-46E2-4A14-91F5-E4EC44DA55BF}"/>
+    <hyperlink ref="Y75" r:id="rId116" xr:uid="{56C7F1C5-36A5-4BB5-8F39-D970AE9DD844}"/>
+    <hyperlink ref="AK75" r:id="rId117" xr:uid="{23F89B0F-CD2A-44AB-BA19-86F39DE523A5}"/>
+    <hyperlink ref="Y76" r:id="rId118" xr:uid="{8E528B4B-0C64-4D6D-83BE-6015D8C1D028}"/>
+    <hyperlink ref="AK76" r:id="rId119" xr:uid="{4C4F01D6-3169-4832-AB12-849A312FAC43}"/>
+    <hyperlink ref="Y77" r:id="rId120" xr:uid="{D0A241F8-63B8-4018-8B7F-058096E6E669}"/>
+    <hyperlink ref="AK77" r:id="rId121" xr:uid="{B267C01B-FC24-4568-820E-50465A95A8FA}"/>
+    <hyperlink ref="Y78" r:id="rId122" xr:uid="{6DD9D412-2C32-4370-B464-B6D631C77AFC}"/>
+    <hyperlink ref="AK78" r:id="rId123" xr:uid="{4E247189-DA62-4B52-ACE0-3777C56382B8}"/>
+    <hyperlink ref="Y79" r:id="rId124" xr:uid="{92A23468-2847-4F52-953E-505679976723}"/>
+    <hyperlink ref="AK79" r:id="rId125" xr:uid="{ABDFD90A-9ADD-4C21-ACE9-323D668FDFA7}"/>
+    <hyperlink ref="Y80" r:id="rId126" xr:uid="{572050FE-005D-446F-BE58-C43C23EEDD5A}"/>
+    <hyperlink ref="AK80" r:id="rId127" xr:uid="{ED695C0E-EA90-4AB6-B8C1-A485FE291F1A}"/>
+    <hyperlink ref="M48:M58" r:id="rId128" display="Akil1@gmail.com" xr:uid="{F02D54B7-DCA8-4081-B4A5-C8309EFBEDF8}"/>
+    <hyperlink ref="M60" r:id="rId129" xr:uid="{D9A42342-075A-4C85-AF9E-8826E7988653}"/>
+    <hyperlink ref="M61:M71" r:id="rId130" display="Akil1@gmail.com" xr:uid="{9111810B-7771-4DC1-8169-4CCF7F9CB12F}"/>
+    <hyperlink ref="M74" r:id="rId131" xr:uid="{36C8807B-637E-40F3-9AC3-11DAFC45B4EA}"/>
+    <hyperlink ref="M75:M80" r:id="rId132" display="Akil1@gmail.com" xr:uid="{B0C9F581-0A58-430D-954E-720DA33F9E60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId133"/>
 </worksheet>
 </file>
--- a/src/test/resources/FHEO-Testdata1.xlsx
+++ b/src/test/resources/FHEO-Testdata1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255323E3-54EB-4A8C-8618-79E28D0FB3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC660F-ECEB-4A8B-998B-D3A13E03CF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>disaltOtherRelationshipDescription</t>
   </si>
   <si>
-    <t>03-04-2021</t>
-  </si>
-  <si>
     <t>morning</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>Updik90</t>
+  </si>
+  <si>
+    <t>05-12-2021</t>
   </si>
 </sst>
 </file>
@@ -2116,10 +2116,10 @@
   <dimension ref="A1:AK91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
       <c r="AK1" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2300,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
@@ -2312,10 +2312,10 @@
         <v>8009098909</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>23</v>
@@ -2333,16 +2333,16 @@
         <v>20006</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="X2" s="13">
         <v>2224568749</v>
@@ -2351,7 +2351,7 @@
         <v>43</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>44</v>
@@ -2360,7 +2360,7 @@
         <v>45</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD2" s="13" t="s">
         <v>22</v>
@@ -2384,7 +2384,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2410,10 +2410,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>10</v>
@@ -2422,10 +2422,10 @@
         <v>8009098909</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>23</v>
@@ -2443,16 +2443,16 @@
         <v>20006</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="X3" s="13">
         <v>2224568749</v>
@@ -2461,7 +2461,7 @@
         <v>43</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>44</v>
@@ -2470,7 +2470,7 @@
         <v>45</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="13" t="s">
         <v>22</v>
@@ -2494,7 +2494,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2520,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>10</v>
@@ -2532,10 +2532,10 @@
         <v>8009098909</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>23</v>
@@ -2553,16 +2553,16 @@
         <v>20006</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="X4" s="13">
         <v>2224568749</v>
@@ -2571,7 +2571,7 @@
         <v>43</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="5" t="s">
         <v>44</v>
@@ -2580,7 +2580,7 @@
         <v>45</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="13" t="s">
         <v>22</v>
@@ -2604,7 +2604,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2630,10 +2630,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>10</v>
@@ -2642,10 +2642,10 @@
         <v>8009098909</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>23</v>
@@ -2663,16 +2663,16 @@
         <v>20006</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="X5" s="13">
         <v>2224568749</v>
@@ -2681,7 +2681,7 @@
         <v>43</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>44</v>
@@ -2690,7 +2690,7 @@
         <v>45</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD5" s="13" t="s">
         <v>22</v>
@@ -2714,7 +2714,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2740,10 +2740,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>10</v>
@@ -2752,10 +2752,10 @@
         <v>8009098909</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>23</v>
@@ -2773,16 +2773,16 @@
         <v>20006</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="X6" s="13">
         <v>2224568749</v>
@@ -2791,7 +2791,7 @@
         <v>43</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>44</v>
@@ -2800,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="13" t="s">
         <v>22</v>
@@ -2824,7 +2824,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2850,10 +2850,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>10</v>
@@ -2862,10 +2862,10 @@
         <v>8009098909</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>23</v>
@@ -2883,16 +2883,16 @@
         <v>20006</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="X7" s="13">
         <v>2224568749</v>
@@ -2901,7 +2901,7 @@
         <v>43</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>44</v>
@@ -2910,7 +2910,7 @@
         <v>45</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="13" t="s">
         <v>22</v>
@@ -2934,7 +2934,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2960,13 +2960,13 @@
         <v>6</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>10</v>
@@ -2975,10 +2975,10 @@
         <v>8009098909</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>23</v>
@@ -2996,16 +2996,16 @@
         <v>20006</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="X8" s="13">
         <v>2224568749</v>
@@ -3014,16 +3014,16 @@
         <v>43</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB8" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>22</v>
@@ -3047,7 +3047,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>10</v>
@@ -3083,10 +3083,10 @@
         <v>8009098909</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>23</v>
@@ -3104,16 +3104,16 @@
         <v>20006</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="X9" s="13">
         <v>2224568749</v>
@@ -3122,7 +3122,7 @@
         <v>43</v>
       </c>
       <c r="Z9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>44</v>
@@ -3131,7 +3131,7 @@
         <v>45</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD9" s="13" t="s">
         <v>22</v>
@@ -3155,7 +3155,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3181,7 +3181,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="8" t="s">
@@ -3191,10 +3191,10 @@
         <v>8009098909</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>23</v>
@@ -3212,16 +3212,16 @@
         <v>20006</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="X10" s="13">
         <v>2224568749</v>
@@ -3230,7 +3230,7 @@
         <v>43</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>44</v>
@@ -3239,7 +3239,7 @@
         <v>45</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD10" s="13" t="s">
         <v>22</v>
@@ -3263,7 +3263,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK10" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3289,20 +3289,20 @@
         <v>7</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="8">
         <v>8009098909</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>23</v>
@@ -3320,16 +3320,16 @@
         <v>20006</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="X11" s="13">
         <v>2224568749</v>
@@ -3338,7 +3338,7 @@
         <v>43</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>44</v>
@@ -3347,7 +3347,7 @@
         <v>45</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>22</v>
@@ -3371,7 +3371,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3397,20 +3397,20 @@
         <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>23</v>
@@ -3428,16 +3428,16 @@
         <v>20006</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="X12" s="13">
         <v>2224568749</v>
@@ -3446,7 +3446,7 @@
         <v>43</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>44</v>
@@ -3455,7 +3455,7 @@
         <v>45</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>22</v>
@@ -3479,7 +3479,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3505,10 +3505,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>10</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>23</v>
@@ -3536,16 +3536,16 @@
         <v>20006</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="X13" s="13">
         <v>2224568749</v>
@@ -3554,7 +3554,7 @@
         <v>43</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>44</v>
@@ -3563,7 +3563,7 @@
         <v>45</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD13" s="13" t="s">
         <v>22</v>
@@ -3587,7 +3587,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK13" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3613,10 +3613,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>10</v>
@@ -3625,35 +3625,35 @@
         <v>8009098909</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="8">
         <v>1245</v>
       </c>
       <c r="Q14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S14" s="8">
         <v>20006</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="X14" s="13">
         <v>2224568749</v>
@@ -3662,7 +3662,7 @@
         <v>43</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>44</v>
@@ -3671,7 +3671,7 @@
         <v>45</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD14" s="13" t="s">
         <v>22</v>
@@ -3695,7 +3695,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3721,10 +3721,10 @@
         <v>7</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>10</v>
@@ -3733,35 +3733,35 @@
         <v>8009098909</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S15" s="8">
         <v>20006</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="X15" s="13">
         <v>2224568749</v>
@@ -3770,19 +3770,19 @@
         <v>43</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB15" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD15" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD15" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE15" s="13">
         <v>80011</v>
@@ -3803,7 +3803,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3829,10 +3829,10 @@
         <v>7</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>10</v>
@@ -3841,35 +3841,35 @@
         <v>8009098909</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="8">
         <v>1245</v>
       </c>
       <c r="Q16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S16" s="19"/>
       <c r="T16" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="W16" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="X16" s="13">
         <v>2224568749</v>
@@ -3878,19 +3878,19 @@
         <v>43</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB16" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD16" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE16" s="13">
         <v>80011</v>
@@ -3911,7 +3911,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK16" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3937,10 +3937,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>10</v>
@@ -3949,56 +3949,56 @@
         <v>8009098909</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P17" s="8">
         <v>1245</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S17" s="8">
         <v>80011</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="W17" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="X17" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y17" s="21"/>
       <c r="Z17" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB17" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD17" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD17" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE17" s="13">
         <v>80011</v>
@@ -4019,7 +4019,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4045,10 +4045,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>10</v>
@@ -4057,37 +4057,37 @@
         <v>8009098909</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P18" s="8">
         <v>1245</v>
       </c>
       <c r="Q18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S18" s="8">
         <v>80011</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="W18" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="X18" s="13">
         <v>2224568749</v>
@@ -4097,16 +4097,16 @@
       </c>
       <c r="Z18" s="22"/>
       <c r="AA18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD18" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD18" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE18" s="13">
         <v>80011</v>
@@ -4127,7 +4127,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK18" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4153,10 +4153,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>10</v>
@@ -4165,37 +4165,37 @@
         <v>8009098909</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P19" s="8">
         <v>1245</v>
       </c>
       <c r="Q19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S19" s="8">
         <v>80011</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="W19" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="X19" s="13">
         <v>2224568749</v>
@@ -4204,17 +4204,17 @@
         <v>43</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB19" s="23"/>
       <c r="AC19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD19" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD19" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE19" s="13">
         <v>80011</v>
@@ -4235,7 +4235,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4261,10 +4261,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>10</v>
@@ -4273,37 +4273,37 @@
         <v>8009098909</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P20" s="8">
         <v>1245</v>
       </c>
       <c r="Q20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S20" s="8">
         <v>80011</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="X20" s="13">
         <v>2224568749</v>
@@ -4312,19 +4312,19 @@
         <v>43</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD20" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD20" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE20" s="13">
         <v>80011</v>
@@ -4343,7 +4343,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4369,10 +4369,10 @@
         <v>7</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>10</v>
@@ -4381,37 +4381,37 @@
         <v>8009098909</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P21" s="8">
         <v>1245</v>
       </c>
       <c r="Q21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S21" s="8">
         <v>80011</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="X21" s="13">
         <v>2224568749</v>
@@ -4420,19 +4420,19 @@
         <v>43</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD21" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE21" s="13">
         <v>80011</v>
@@ -4451,7 +4451,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4477,10 +4477,10 @@
         <v>7</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>10</v>
@@ -4489,37 +4489,37 @@
         <v>8009098909</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P22" s="8">
         <v>1245</v>
       </c>
       <c r="Q22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S22" s="8">
         <v>80011</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V22" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="W22" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="X22" s="13">
         <v>2224568749</v>
@@ -4528,19 +4528,19 @@
         <v>43</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB22" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD22" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE22" s="13">
         <v>80011</v>
@@ -4559,7 +4559,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK22" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4585,10 +4585,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>10</v>
@@ -4597,37 +4597,37 @@
         <v>8009098909</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P23" s="8">
         <v>1245</v>
       </c>
       <c r="Q23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S23" s="8">
         <v>80011</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="W23" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="X23" s="13">
         <v>2224568749</v>
@@ -4636,19 +4636,19 @@
         <v>43</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB23" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD23" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE23" s="13">
         <v>80011</v>
@@ -4667,7 +4667,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK23" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4693,10 +4693,10 @@
         <v>7</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>10</v>
@@ -4705,37 +4705,37 @@
         <v>8009098909</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P24" s="8">
         <v>1245</v>
       </c>
       <c r="Q24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S24" s="8">
         <v>80011</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W24" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="X24" s="13">
         <v>2224568749</v>
@@ -4744,19 +4744,19 @@
         <v>43</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD24" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD24" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE24" s="13">
         <v>80011</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="AJ24" s="19"/>
       <c r="AK24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4801,10 +4801,10 @@
         <v>7</v>
       </c>
       <c r="I25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>10</v>
@@ -4813,37 +4813,37 @@
         <v>8009098909</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P25" s="8">
         <v>1245</v>
       </c>
       <c r="Q25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S25" s="8">
         <v>80011</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="X25" s="13">
         <v>2224568749</v>
@@ -4852,19 +4852,19 @@
         <v>43</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD25" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD25" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE25" s="13">
         <v>80011</v>
@@ -4914,7 +4914,7 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -4926,16 +4926,16 @@
       </c>
       <c r="S26" s="19"/>
       <c r="T26" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="X26" s="13">
         <v>2224568749</v>
@@ -4943,14 +4943,14 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
       <c r="AA26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB26" s="19"/>
       <c r="AC26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD26" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD26" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE26" s="13">
         <v>80011</v>
@@ -4990,7 +4990,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
@@ -5002,16 +5002,16 @@
       </c>
       <c r="S27" s="19"/>
       <c r="T27" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="X27" s="13">
         <v>2224568749</v>
@@ -5019,14 +5019,14 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
       <c r="AA27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB27" s="19"/>
       <c r="AC27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD27" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD27" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE27" s="13">
         <v>80011</v>
@@ -5061,10 +5061,10 @@
         <v>7</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>10</v>
@@ -5073,10 +5073,10 @@
         <v>8009098909</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>23</v>
@@ -5094,16 +5094,16 @@
         <v>20006</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V28" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="W28" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="X28" s="13">
         <v>2224568749</v>
@@ -5112,7 +5112,7 @@
         <v>43</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA28" s="5" t="s">
         <v>44</v>
@@ -5121,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD28" s="13" t="s">
         <v>22</v>
@@ -5145,7 +5145,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK28" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5171,10 +5171,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>10</v>
@@ -5183,10 +5183,10 @@
         <v>8009098909</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>23</v>
@@ -5204,16 +5204,16 @@
         <v>20006</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="X29" s="13">
         <v>2224568749</v>
@@ -5222,7 +5222,7 @@
         <v>43</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>44</v>
@@ -5231,7 +5231,7 @@
         <v>45</v>
       </c>
       <c r="AC29" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD29" s="13" t="s">
         <v>22</v>
@@ -5255,7 +5255,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK29" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5281,10 +5281,10 @@
         <v>7</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>10</v>
@@ -5293,10 +5293,10 @@
         <v>8009098909</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>23</v>
@@ -5314,16 +5314,16 @@
         <v>20006</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V30" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="W30" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="X30" s="13">
         <v>2224568749</v>
@@ -5332,7 +5332,7 @@
         <v>43</v>
       </c>
       <c r="Z30" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA30" s="5" t="s">
         <v>44</v>
@@ -5341,7 +5341,7 @@
         <v>45</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD30" s="13" t="s">
         <v>22</v>
@@ -5365,7 +5365,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK30" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5391,10 +5391,10 @@
         <v>7</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>10</v>
@@ -5403,10 +5403,10 @@
         <v>8009098909</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>23</v>
@@ -5424,16 +5424,16 @@
         <v>20006</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W31" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="X31" s="13">
         <v>2224568749</v>
@@ -5442,7 +5442,7 @@
         <v>43</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>44</v>
@@ -5451,7 +5451,7 @@
         <v>45</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD31" s="13" t="s">
         <v>22</v>
@@ -5475,7 +5475,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK31" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5501,10 +5501,10 @@
         <v>7</v>
       </c>
       <c r="I32" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>10</v>
@@ -5513,10 +5513,10 @@
         <v>8009098909</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>23</v>
@@ -5534,16 +5534,16 @@
         <v>20006</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V32" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="W32" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="X32" s="13">
         <v>2224568749</v>
@@ -5552,7 +5552,7 @@
         <v>43</v>
       </c>
       <c r="Z32" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>44</v>
@@ -5561,7 +5561,7 @@
         <v>45</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD32" s="13" t="s">
         <v>22</v>
@@ -5585,7 +5585,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK32" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5611,10 +5611,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>10</v>
@@ -5623,10 +5623,10 @@
         <v>8009098909</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>23</v>
@@ -5644,16 +5644,16 @@
         <v>20006</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V33" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W33" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="X33" s="13">
         <v>2224568749</v>
@@ -5662,7 +5662,7 @@
         <v>43</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>44</v>
@@ -5671,7 +5671,7 @@
         <v>45</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD33" s="13" t="s">
         <v>22</v>
@@ -5695,7 +5695,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK33" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5721,13 +5721,13 @@
         <v>6</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>10</v>
@@ -5736,10 +5736,10 @@
         <v>8009098909</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>23</v>
@@ -5757,16 +5757,16 @@
         <v>20006</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V34" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="W34" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="X34" s="13">
         <v>2224568749</v>
@@ -5775,7 +5775,7 @@
         <v>43</v>
       </c>
       <c r="Z34" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>44</v>
@@ -5784,7 +5784,7 @@
         <v>45</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD34" s="13" t="s">
         <v>22</v>
@@ -5808,7 +5808,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -5839,7 +5839,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
@@ -5851,16 +5851,16 @@
       </c>
       <c r="S35" s="19"/>
       <c r="T35" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V35" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W35" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="W35" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="X35" s="13">
         <v>2224568749</v>
@@ -5868,14 +5868,14 @@
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
       <c r="AA35" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB35" s="19"/>
       <c r="AC35" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD35" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD35" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE35" s="13">
         <v>80011</v>
@@ -5915,7 +5915,7 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -5927,16 +5927,16 @@
       </c>
       <c r="S36" s="19"/>
       <c r="T36" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V36" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W36" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="X36" s="13">
         <v>2224568749</v>
@@ -5944,14 +5944,14 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
       <c r="AA36" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB36" s="19"/>
       <c r="AC36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD36" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD36" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE36" s="13">
         <v>80011</v>
@@ -5991,7 +5991,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
@@ -6003,16 +6003,16 @@
       </c>
       <c r="S37" s="19"/>
       <c r="T37" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V37" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="X37" s="13">
         <v>2224568749</v>
@@ -6020,14 +6020,14 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
       <c r="AA37" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB37" s="19"/>
       <c r="AC37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD37" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD37" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE37" s="13">
         <v>80011</v>
@@ -6067,7 +6067,7 @@
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
@@ -6079,16 +6079,16 @@
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="W38" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="X38" s="13">
         <v>2224568749</v>
@@ -6096,14 +6096,14 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB38" s="19"/>
       <c r="AC38" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD38" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD38" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE38" s="13">
         <v>80011</v>
@@ -6143,7 +6143,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
@@ -6155,16 +6155,16 @@
       </c>
       <c r="S39" s="19"/>
       <c r="T39" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V39" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="W39" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="X39" s="13">
         <v>2224568749</v>
@@ -6172,14 +6172,14 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
       <c r="AA39" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB39" s="19"/>
       <c r="AC39" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD39" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD39" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE39" s="13">
         <v>80011</v>
@@ -6214,7 +6214,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -6222,7 +6222,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -6234,16 +6234,16 @@
       </c>
       <c r="S40" s="19"/>
       <c r="T40" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V40" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="W40" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="X40" s="13">
         <v>2224568749</v>
@@ -6251,14 +6251,14 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
       <c r="AA40" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB40" s="19"/>
       <c r="AC40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD40" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE40" s="13">
         <v>80011</v>
@@ -6298,7 +6298,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
@@ -6310,16 +6310,16 @@
       </c>
       <c r="S41" s="19"/>
       <c r="T41" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V41" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="W41" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="X41" s="13">
         <v>2224568749</v>
@@ -6327,14 +6327,14 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
       <c r="AA41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB41" s="19"/>
       <c r="AC41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD41" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD41" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE41" s="13">
         <v>80011</v>
@@ -6374,7 +6374,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -6386,16 +6386,16 @@
       </c>
       <c r="S42" s="19"/>
       <c r="T42" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V42" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="W42" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="X42" s="13">
         <v>2224568749</v>
@@ -6403,14 +6403,14 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB42" s="19"/>
       <c r="AC42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD42" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE42" s="13">
         <v>80011</v>
@@ -6450,7 +6450,7 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -6462,16 +6462,16 @@
       </c>
       <c r="S43" s="19"/>
       <c r="T43" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="W43" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="X43" s="13">
         <v>2224568749</v>
@@ -6479,14 +6479,14 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB43" s="19"/>
       <c r="AC43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD43" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD43" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE43" s="13">
         <v>80011</v>
@@ -6526,7 +6526,7 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -6538,16 +6538,16 @@
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="W44" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="X44" s="13">
         <v>2224568749</v>
@@ -6555,14 +6555,14 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB44" s="19"/>
       <c r="AC44" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD44" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD44" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE44" s="13">
         <v>80011</v>
@@ -6602,7 +6602,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
@@ -6614,16 +6614,16 @@
       </c>
       <c r="S45" s="19"/>
       <c r="T45" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V45" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="W45" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="X45" s="13">
         <v>2224568749</v>
@@ -6631,14 +6631,14 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB45" s="19"/>
       <c r="AC45" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD45" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD45" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE45" s="13">
         <v>80011</v>
@@ -6678,7 +6678,7 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -6690,16 +6690,16 @@
       </c>
       <c r="S46" s="19"/>
       <c r="T46" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V46" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="X46" s="13">
         <v>2224568749</v>
@@ -6707,14 +6707,14 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
       <c r="AA46" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB46" s="19"/>
       <c r="AC46" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD46" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE46" s="13">
         <v>80011</v>
@@ -6749,7 +6749,7 @@
         <v>6</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
@@ -6757,7 +6757,7 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
@@ -6769,16 +6769,16 @@
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V47" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="X47" s="13">
         <v>2224568749</v>
@@ -6786,14 +6786,14 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
       <c r="AA47" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD47" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD47" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE47" s="13">
         <v>80011</v>
@@ -6828,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="I48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>10</v>
@@ -6840,10 +6840,10 @@
         <v>8009098909</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>23</v>
@@ -6861,16 +6861,16 @@
         <v>20006</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V48" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="X48" s="13">
         <v>2224568749</v>
@@ -6879,7 +6879,7 @@
         <v>43</v>
       </c>
       <c r="Z48" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA48" s="5" t="s">
         <v>44</v>
@@ -6888,7 +6888,7 @@
         <v>45</v>
       </c>
       <c r="AC48" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD48" s="13" t="s">
         <v>22</v>
@@ -6903,13 +6903,13 @@
         <v>46</v>
       </c>
       <c r="AH48" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ48" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK48" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -6935,10 +6935,10 @@
         <v>7</v>
       </c>
       <c r="I49" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>10</v>
@@ -6947,10 +6947,10 @@
         <v>8009098909</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>23</v>
@@ -6968,16 +6968,16 @@
         <v>20006</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V49" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="W49" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="X49" s="13">
         <v>2224568749</v>
@@ -6986,7 +6986,7 @@
         <v>43</v>
       </c>
       <c r="Z49" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA49" s="5" t="s">
         <v>44</v>
@@ -6995,7 +6995,7 @@
         <v>45</v>
       </c>
       <c r="AC49" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD49" s="13" t="s">
         <v>22</v>
@@ -7010,13 +7010,13 @@
         <v>46</v>
       </c>
       <c r="AH49" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ49" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK49" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7042,10 +7042,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>10</v>
@@ -7054,10 +7054,10 @@
         <v>8009098909</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>23</v>
@@ -7075,16 +7075,16 @@
         <v>20006</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V50" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="W50" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>242</v>
       </c>
       <c r="X50" s="13">
         <v>2224568749</v>
@@ -7093,7 +7093,7 @@
         <v>43</v>
       </c>
       <c r="Z50" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA50" s="5" t="s">
         <v>44</v>
@@ -7102,7 +7102,7 @@
         <v>45</v>
       </c>
       <c r="AC50" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD50" s="13" t="s">
         <v>22</v>
@@ -7117,13 +7117,13 @@
         <v>46</v>
       </c>
       <c r="AH50" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ50" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK50" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7149,10 +7149,10 @@
         <v>7</v>
       </c>
       <c r="I51" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>10</v>
@@ -7161,10 +7161,10 @@
         <v>8009098909</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>23</v>
@@ -7182,16 +7182,16 @@
         <v>20006</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U51" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V51" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="W51" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="X51" s="13">
         <v>2224568749</v>
@@ -7200,7 +7200,7 @@
         <v>43</v>
       </c>
       <c r="Z51" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA51" s="5" t="s">
         <v>44</v>
@@ -7209,7 +7209,7 @@
         <v>45</v>
       </c>
       <c r="AC51" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD51" s="13" t="s">
         <v>22</v>
@@ -7224,13 +7224,13 @@
         <v>46</v>
       </c>
       <c r="AH51" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ51" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK51" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7256,10 +7256,10 @@
         <v>7</v>
       </c>
       <c r="I52" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>10</v>
@@ -7268,10 +7268,10 @@
         <v>8009098909</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>23</v>
@@ -7289,16 +7289,16 @@
         <v>20006</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="W52" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="X52" s="13">
         <v>2224568749</v>
@@ -7307,7 +7307,7 @@
         <v>43</v>
       </c>
       <c r="Z52" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA52" s="5" t="s">
         <v>44</v>
@@ -7316,7 +7316,7 @@
         <v>45</v>
       </c>
       <c r="AC52" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD52" s="13" t="s">
         <v>22</v>
@@ -7331,13 +7331,13 @@
         <v>46</v>
       </c>
       <c r="AH52" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ52" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK52" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7363,10 +7363,10 @@
         <v>7</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>10</v>
@@ -7375,10 +7375,10 @@
         <v>8009098909</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>23</v>
@@ -7396,16 +7396,16 @@
         <v>20006</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U53" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V53" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="W53" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="W53" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="X53" s="13">
         <v>2224568749</v>
@@ -7414,7 +7414,7 @@
         <v>43</v>
       </c>
       <c r="Z53" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA53" s="5" t="s">
         <v>44</v>
@@ -7423,7 +7423,7 @@
         <v>45</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD53" s="13" t="s">
         <v>22</v>
@@ -7438,13 +7438,13 @@
         <v>46</v>
       </c>
       <c r="AH53" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ53" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK53" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7470,13 +7470,13 @@
         <v>6</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>10</v>
@@ -7485,10 +7485,10 @@
         <v>8009098909</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>23</v>
@@ -7506,16 +7506,16 @@
         <v>20006</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V54" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="W54" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="X54" s="13">
         <v>2224568749</v>
@@ -7524,16 +7524,16 @@
         <v>43</v>
       </c>
       <c r="Z54" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA54" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AB54" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD54" s="13" t="s">
         <v>22</v>
@@ -7548,13 +7548,13 @@
         <v>46</v>
       </c>
       <c r="AH54" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ54" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK54" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>10</v>
@@ -7590,10 +7590,10 @@
         <v>8009098909</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>23</v>
@@ -7611,16 +7611,16 @@
         <v>20006</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V55" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="W55" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="W55" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="X55" s="13">
         <v>2224568749</v>
@@ -7629,7 +7629,7 @@
         <v>43</v>
       </c>
       <c r="Z55" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA55" s="5" t="s">
         <v>44</v>
@@ -7638,7 +7638,7 @@
         <v>45</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD55" s="13" t="s">
         <v>22</v>
@@ -7653,13 +7653,13 @@
         <v>46</v>
       </c>
       <c r="AH55" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ55" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK55" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7685,7 +7685,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J56" s="19"/>
       <c r="K56" s="8" t="s">
@@ -7695,10 +7695,10 @@
         <v>8009098909</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>23</v>
@@ -7716,16 +7716,16 @@
         <v>20006</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U56" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V56" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="W56" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="W56" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="X56" s="13">
         <v>2224568749</v>
@@ -7734,7 +7734,7 @@
         <v>43</v>
       </c>
       <c r="Z56" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA56" s="5" t="s">
         <v>44</v>
@@ -7743,7 +7743,7 @@
         <v>45</v>
       </c>
       <c r="AC56" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD56" s="13" t="s">
         <v>22</v>
@@ -7758,13 +7758,13 @@
         <v>46</v>
       </c>
       <c r="AH56" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ56" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK56" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7790,20 +7790,20 @@
         <v>7</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="K57" s="19"/>
       <c r="L57" s="8">
         <v>8009098909</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>23</v>
@@ -7821,16 +7821,16 @@
         <v>20006</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V57" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="W57" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="W57" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="X57" s="13">
         <v>2224568749</v>
@@ -7839,7 +7839,7 @@
         <v>43</v>
       </c>
       <c r="Z57" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA57" s="5" t="s">
         <v>44</v>
@@ -7848,7 +7848,7 @@
         <v>45</v>
       </c>
       <c r="AC57" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD57" s="13" t="s">
         <v>22</v>
@@ -7863,13 +7863,13 @@
         <v>46</v>
       </c>
       <c r="AH57" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ57" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK57" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -7895,20 +7895,20 @@
         <v>7</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="19"/>
       <c r="M58" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>23</v>
@@ -7926,16 +7926,16 @@
         <v>20006</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V58" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="W58" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="W58" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="X58" s="13">
         <v>2224568749</v>
@@ -7944,7 +7944,7 @@
         <v>43</v>
       </c>
       <c r="Z58" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA58" s="5" t="s">
         <v>44</v>
@@ -7953,7 +7953,7 @@
         <v>45</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD58" s="13" t="s">
         <v>22</v>
@@ -7968,13 +7968,13 @@
         <v>46</v>
       </c>
       <c r="AH58" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ58" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK58" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8000,10 +8000,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>10</v>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="M59" s="20"/>
       <c r="N59" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>23</v>
@@ -8031,16 +8031,16 @@
         <v>20006</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V59" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="W59" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="W59" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="X59" s="13">
         <v>2224568749</v>
@@ -8049,7 +8049,7 @@
         <v>43</v>
       </c>
       <c r="Z59" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA59" s="5" t="s">
         <v>44</v>
@@ -8058,7 +8058,7 @@
         <v>45</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD59" s="13" t="s">
         <v>22</v>
@@ -8073,13 +8073,13 @@
         <v>46</v>
       </c>
       <c r="AH59" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ59" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK59" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8105,10 +8105,10 @@
         <v>7</v>
       </c>
       <c r="I60" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>10</v>
@@ -8117,35 +8117,35 @@
         <v>8009098909</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O60" s="19"/>
       <c r="P60" s="8">
         <v>1245</v>
       </c>
       <c r="Q60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R60" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S60" s="8">
         <v>20006</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V60" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="W60" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="W60" s="13" t="s">
-        <v>280</v>
       </c>
       <c r="X60" s="13">
         <v>2224568749</v>
@@ -8154,7 +8154,7 @@
         <v>43</v>
       </c>
       <c r="Z60" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA60" s="5" t="s">
         <v>44</v>
@@ -8163,7 +8163,7 @@
         <v>45</v>
       </c>
       <c r="AC60" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD60" s="13" t="s">
         <v>22</v>
@@ -8178,13 +8178,13 @@
         <v>46</v>
       </c>
       <c r="AH60" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ60" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK60" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8210,10 +8210,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>10</v>
@@ -8222,35 +8222,35 @@
         <v>8009098909</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R61" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S61" s="8">
         <v>20006</v>
       </c>
       <c r="T61" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V61" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="W61" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="W61" s="13" t="s">
-        <v>284</v>
       </c>
       <c r="X61" s="13">
         <v>2224568749</v>
@@ -8259,19 +8259,19 @@
         <v>43</v>
       </c>
       <c r="Z61" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA61" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB61" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC61" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD61" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD61" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE61" s="13">
         <v>80011</v>
@@ -8283,13 +8283,13 @@
         <v>46</v>
       </c>
       <c r="AH61" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ61" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK61" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8315,10 +8315,10 @@
         <v>7</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>10</v>
@@ -8327,35 +8327,35 @@
         <v>8009098909</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P62" s="8">
         <v>1245</v>
       </c>
       <c r="Q62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R62" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S62" s="19"/>
       <c r="T62" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V62" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="W62" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="X62" s="13">
         <v>2224568749</v>
@@ -8364,19 +8364,19 @@
         <v>43</v>
       </c>
       <c r="Z62" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA62" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB62" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC62" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD62" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD62" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE62" s="13">
         <v>80011</v>
@@ -8388,13 +8388,13 @@
         <v>46</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ62" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK62" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8420,10 +8420,10 @@
         <v>7</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>10</v>
@@ -8432,56 +8432,56 @@
         <v>8009098909</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P63" s="8">
         <v>1245</v>
       </c>
       <c r="Q63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R63" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S63" s="8">
         <v>80011</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V63" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>291</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>292</v>
       </c>
       <c r="X63" s="13">
         <v>2224568749</v>
       </c>
       <c r="Y63" s="21"/>
       <c r="Z63" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA63" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB63" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC63" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD63" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD63" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE63" s="13">
         <v>80011</v>
@@ -8493,13 +8493,13 @@
         <v>46</v>
       </c>
       <c r="AH63" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ63" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK63" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8525,10 +8525,10 @@
         <v>7</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>10</v>
@@ -8537,37 +8537,37 @@
         <v>8009098909</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P64" s="8">
         <v>1245</v>
       </c>
       <c r="Q64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R64" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S64" s="8">
         <v>80011</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V64" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="W64" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="X64" s="13">
         <v>2224568749</v>
@@ -8577,16 +8577,16 @@
       </c>
       <c r="Z64" s="22"/>
       <c r="AA64" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB64" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC64" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD64" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD64" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE64" s="13">
         <v>80011</v>
@@ -8598,13 +8598,13 @@
         <v>46</v>
       </c>
       <c r="AH64" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ64" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK64" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8630,10 +8630,10 @@
         <v>7</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>10</v>
@@ -8642,37 +8642,37 @@
         <v>8009098909</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P65" s="8">
         <v>1245</v>
       </c>
       <c r="Q65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S65" s="8">
         <v>80011</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V65" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="W65" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="X65" s="13">
         <v>2224568749</v>
@@ -8681,17 +8681,17 @@
         <v>43</v>
       </c>
       <c r="Z65" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA65" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB65" s="23"/>
       <c r="AC65" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD65" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD65" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE65" s="13">
         <v>80011</v>
@@ -8703,13 +8703,13 @@
         <v>46</v>
       </c>
       <c r="AH65" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ65" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK65" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8735,10 +8735,10 @@
         <v>7</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>10</v>
@@ -8747,37 +8747,37 @@
         <v>8009098909</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P66" s="8">
         <v>1245</v>
       </c>
       <c r="Q66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R66" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R66" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S66" s="8">
         <v>80011</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V66" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="W66" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="W66" s="13" t="s">
-        <v>304</v>
       </c>
       <c r="X66" s="13">
         <v>2224568749</v>
@@ -8786,19 +8786,19 @@
         <v>43</v>
       </c>
       <c r="Z66" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA66" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB66" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC66" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD66" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD66" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE66" s="13">
         <v>80011</v>
@@ -8808,13 +8808,13 @@
         <v>46</v>
       </c>
       <c r="AH66" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ66" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK66" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8840,10 +8840,10 @@
         <v>7</v>
       </c>
       <c r="I67" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>10</v>
@@ -8852,37 +8852,37 @@
         <v>8009098909</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P67" s="8">
         <v>1245</v>
       </c>
       <c r="Q67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R67" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S67" s="8">
         <v>80011</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V67" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>307</v>
-      </c>
-      <c r="W67" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="X67" s="13">
         <v>2224568749</v>
@@ -8891,19 +8891,19 @@
         <v>43</v>
       </c>
       <c r="Z67" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB67" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC67" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD67" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD67" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE67" s="13">
         <v>80011</v>
@@ -8913,13 +8913,13 @@
       </c>
       <c r="AG67" s="23"/>
       <c r="AH67" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ67" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK67" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -8945,10 +8945,10 @@
         <v>7</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>10</v>
@@ -8957,37 +8957,37 @@
         <v>8009098909</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P68" s="8">
         <v>1245</v>
       </c>
       <c r="Q68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S68" s="8">
         <v>80011</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V68" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="W68" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="X68" s="13">
         <v>2224568749</v>
@@ -8996,19 +8996,19 @@
         <v>43</v>
       </c>
       <c r="Z68" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB68" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC68" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD68" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD68" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE68" s="13">
         <v>80011</v>
@@ -9024,7 +9024,7 @@
         <v>8009098908</v>
       </c>
       <c r="AK68" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9050,10 +9050,10 @@
         <v>7</v>
       </c>
       <c r="I69" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>10</v>
@@ -9062,37 +9062,37 @@
         <v>8009098909</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P69" s="8">
         <v>1245</v>
       </c>
       <c r="Q69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R69" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S69" s="8">
         <v>80011</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V69" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="W69" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="W69" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="X69" s="13">
         <v>2224568749</v>
@@ -9101,19 +9101,19 @@
         <v>43</v>
       </c>
       <c r="Z69" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB69" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC69" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD69" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD69" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE69" s="13">
         <v>80011</v>
@@ -9125,14 +9125,14 @@
         <v>46</v>
       </c>
       <c r="AH69" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AI69" s="23"/>
       <c r="AJ69" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK69" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9158,10 +9158,10 @@
         <v>7</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>10</v>
@@ -9170,37 +9170,37 @@
         <v>8009098909</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P70" s="8">
         <v>1245</v>
       </c>
       <c r="Q70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R70" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S70" s="8">
         <v>80011</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V70" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="W70" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="W70" s="13" t="s">
-        <v>320</v>
       </c>
       <c r="X70" s="13">
         <v>2224568749</v>
@@ -9209,19 +9209,19 @@
         <v>43</v>
       </c>
       <c r="Z70" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB70" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC70" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD70" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD70" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE70" s="13">
         <v>80011</v>
@@ -9233,11 +9233,11 @@
         <v>46</v>
       </c>
       <c r="AH70" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ70" s="19"/>
       <c r="AK70" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9263,10 +9263,10 @@
         <v>7</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>10</v>
@@ -9275,37 +9275,37 @@
         <v>8009098909</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P71" s="8">
         <v>1245</v>
       </c>
       <c r="Q71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R71" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="S71" s="8">
         <v>80011</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V71" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="W71" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="W71" s="13" t="s">
-        <v>324</v>
       </c>
       <c r="X71" s="13">
         <v>2224568749</v>
@@ -9314,19 +9314,19 @@
         <v>43</v>
       </c>
       <c r="Z71" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA71" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB71" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AC71" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD71" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE71" s="13">
         <v>80011</v>
@@ -9338,7 +9338,7 @@
         <v>46</v>
       </c>
       <c r="AH71" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ71" s="8">
         <v>8009098908</v>
@@ -9373,7 +9373,7 @@
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
       <c r="N72" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
@@ -9385,16 +9385,16 @@
       </c>
       <c r="S72" s="19"/>
       <c r="T72" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V72" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="W72" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="X72" s="13">
         <v>2224568749</v>
@@ -9402,14 +9402,14 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
       <c r="AA72" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB72" s="19"/>
       <c r="AC72" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD72" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD72" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE72" s="13">
         <v>80011</v>
@@ -9449,7 +9449,7 @@
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
       <c r="N73" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O73" s="19"/>
       <c r="P73" s="19"/>
@@ -9461,16 +9461,16 @@
       </c>
       <c r="S73" s="19"/>
       <c r="T73" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U73" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V73" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="W73" s="13" t="s">
         <v>327</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>328</v>
       </c>
       <c r="X73" s="13">
         <v>2224568749</v>
@@ -9478,14 +9478,14 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
       <c r="AA73" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB73" s="19"/>
       <c r="AC73" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD73" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD73" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE73" s="13">
         <v>80011</v>
@@ -9520,10 +9520,10 @@
         <v>7</v>
       </c>
       <c r="I74" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>10</v>
@@ -9532,10 +9532,10 @@
         <v>8009098909</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O74" s="8" t="s">
         <v>23</v>
@@ -9553,16 +9553,16 @@
         <v>20006</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V74" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="W74" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="W74" s="13" t="s">
-        <v>332</v>
       </c>
       <c r="X74" s="13">
         <v>2224568749</v>
@@ -9571,7 +9571,7 @@
         <v>43</v>
       </c>
       <c r="Z74" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA74" s="5" t="s">
         <v>44</v>
@@ -9580,7 +9580,7 @@
         <v>45</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD74" s="13" t="s">
         <v>22</v>
@@ -9595,13 +9595,13 @@
         <v>46</v>
       </c>
       <c r="AH74" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ74" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK74" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9627,10 +9627,10 @@
         <v>7</v>
       </c>
       <c r="I75" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>10</v>
@@ -9639,10 +9639,10 @@
         <v>8009098909</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>23</v>
@@ -9660,16 +9660,16 @@
         <v>20006</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V75" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="W75" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="W75" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="X75" s="13">
         <v>2224568749</v>
@@ -9678,7 +9678,7 @@
         <v>43</v>
       </c>
       <c r="Z75" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA75" s="5" t="s">
         <v>44</v>
@@ -9687,7 +9687,7 @@
         <v>45</v>
       </c>
       <c r="AC75" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD75" s="13" t="s">
         <v>22</v>
@@ -9702,13 +9702,13 @@
         <v>46</v>
       </c>
       <c r="AH75" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ75" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK75" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9734,10 +9734,10 @@
         <v>7</v>
       </c>
       <c r="I76" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>10</v>
@@ -9746,10 +9746,10 @@
         <v>8009098909</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O76" s="8" t="s">
         <v>23</v>
@@ -9767,16 +9767,16 @@
         <v>20006</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V76" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="W76" s="13" t="s">
         <v>339</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="X76" s="13">
         <v>2224568749</v>
@@ -9785,7 +9785,7 @@
         <v>43</v>
       </c>
       <c r="Z76" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA76" s="5" t="s">
         <v>44</v>
@@ -9794,7 +9794,7 @@
         <v>45</v>
       </c>
       <c r="AC76" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD76" s="13" t="s">
         <v>22</v>
@@ -9809,13 +9809,13 @@
         <v>46</v>
       </c>
       <c r="AH76" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ76" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK76" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9841,10 +9841,10 @@
         <v>7</v>
       </c>
       <c r="I77" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>10</v>
@@ -9853,10 +9853,10 @@
         <v>8009098909</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>23</v>
@@ -9874,16 +9874,16 @@
         <v>20006</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V77" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="W77" s="13" t="s">
         <v>343</v>
-      </c>
-      <c r="W77" s="13" t="s">
-        <v>344</v>
       </c>
       <c r="X77" s="13">
         <v>2224568749</v>
@@ -9892,7 +9892,7 @@
         <v>43</v>
       </c>
       <c r="Z77" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA77" s="5" t="s">
         <v>44</v>
@@ -9901,7 +9901,7 @@
         <v>45</v>
       </c>
       <c r="AC77" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD77" s="13" t="s">
         <v>22</v>
@@ -9916,13 +9916,13 @@
         <v>46</v>
       </c>
       <c r="AH77" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ77" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK77" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -9948,10 +9948,10 @@
         <v>7</v>
       </c>
       <c r="I78" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J78" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>10</v>
@@ -9960,10 +9960,10 @@
         <v>8009098909</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O78" s="8" t="s">
         <v>23</v>
@@ -9981,16 +9981,16 @@
         <v>20006</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V78" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="W78" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="W78" s="13" t="s">
-        <v>348</v>
       </c>
       <c r="X78" s="13">
         <v>2224568749</v>
@@ -9999,7 +9999,7 @@
         <v>43</v>
       </c>
       <c r="Z78" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA78" s="5" t="s">
         <v>44</v>
@@ -10008,7 +10008,7 @@
         <v>45</v>
       </c>
       <c r="AC78" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD78" s="13" t="s">
         <v>22</v>
@@ -10023,13 +10023,13 @@
         <v>46</v>
       </c>
       <c r="AH78" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ78" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK78" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10055,10 +10055,10 @@
         <v>7</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>10</v>
@@ -10067,10 +10067,10 @@
         <v>8009098909</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>23</v>
@@ -10088,16 +10088,16 @@
         <v>20006</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V79" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="W79" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="W79" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="X79" s="13">
         <v>2224568749</v>
@@ -10106,7 +10106,7 @@
         <v>43</v>
       </c>
       <c r="Z79" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA79" s="5" t="s">
         <v>44</v>
@@ -10115,7 +10115,7 @@
         <v>45</v>
       </c>
       <c r="AC79" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD79" s="13" t="s">
         <v>22</v>
@@ -10130,13 +10130,13 @@
         <v>46</v>
       </c>
       <c r="AH79" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ79" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK79" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10162,13 +10162,13 @@
         <v>6</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I80" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>10</v>
@@ -10177,10 +10177,10 @@
         <v>8009098909</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O80" s="8" t="s">
         <v>23</v>
@@ -10198,16 +10198,16 @@
         <v>20006</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V80" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="W80" s="13" t="s">
         <v>355</v>
-      </c>
-      <c r="W80" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="X80" s="13">
         <v>2224568749</v>
@@ -10216,7 +10216,7 @@
         <v>43</v>
       </c>
       <c r="Z80" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA80" s="5" t="s">
         <v>44</v>
@@ -10225,7 +10225,7 @@
         <v>45</v>
       </c>
       <c r="AC80" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD80" s="13" t="s">
         <v>22</v>
@@ -10240,13 +10240,13 @@
         <v>46</v>
       </c>
       <c r="AH80" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ80" s="8">
         <v>8009098908</v>
       </c>
       <c r="AK80" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -10277,7 +10277,7 @@
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
       <c r="N81" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O81" s="19"/>
       <c r="P81" s="19"/>
@@ -10289,16 +10289,16 @@
       </c>
       <c r="S81" s="19"/>
       <c r="T81" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V81" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="W81" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="W81" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="X81" s="13">
         <v>2224568749</v>
@@ -10306,14 +10306,14 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB81" s="19"/>
       <c r="AC81" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD81" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD81" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE81" s="13">
         <v>80011</v>
@@ -10353,7 +10353,7 @@
       <c r="L82" s="19"/>
       <c r="M82" s="19"/>
       <c r="N82" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O82" s="19"/>
       <c r="P82" s="19"/>
@@ -10365,16 +10365,16 @@
       </c>
       <c r="S82" s="19"/>
       <c r="T82" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V82" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="W82" s="13" t="s">
         <v>359</v>
-      </c>
-      <c r="W82" s="13" t="s">
-        <v>360</v>
       </c>
       <c r="X82" s="13">
         <v>2224568749</v>
@@ -10382,14 +10382,14 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB82" s="19"/>
       <c r="AC82" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD82" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD82" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE82" s="13">
         <v>80011</v>
@@ -10429,7 +10429,7 @@
       <c r="L83" s="19"/>
       <c r="M83" s="19"/>
       <c r="N83" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O83" s="19"/>
       <c r="P83" s="19"/>
@@ -10441,16 +10441,16 @@
       </c>
       <c r="S83" s="19"/>
       <c r="T83" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V83" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="W83" s="13" t="s">
         <v>361</v>
-      </c>
-      <c r="W83" s="13" t="s">
-        <v>362</v>
       </c>
       <c r="X83" s="13">
         <v>2224568749</v>
@@ -10458,14 +10458,14 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB83" s="19"/>
       <c r="AC83" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD83" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD83" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE83" s="13">
         <v>80011</v>
@@ -10505,7 +10505,7 @@
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O84" s="19"/>
       <c r="P84" s="19"/>
@@ -10517,16 +10517,16 @@
       </c>
       <c r="S84" s="19"/>
       <c r="T84" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V84" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="W84" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="W84" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="X84" s="13">
         <v>2224568749</v>
@@ -10534,14 +10534,14 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB84" s="19"/>
       <c r="AC84" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD84" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD84" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE84" s="13">
         <v>80011</v>
@@ -10581,7 +10581,7 @@
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O85" s="19"/>
       <c r="P85" s="19"/>
@@ -10593,16 +10593,16 @@
       </c>
       <c r="S85" s="19"/>
       <c r="T85" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V85" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="W85" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="W85" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="X85" s="13">
         <v>2224568749</v>
@@ -10610,14 +10610,14 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB85" s="19"/>
       <c r="AC85" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD85" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD85" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE85" s="13">
         <v>80011</v>
@@ -10652,7 +10652,7 @@
         <v>6</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
@@ -10660,7 +10660,7 @@
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O86" s="19"/>
       <c r="P86" s="19"/>
@@ -10672,16 +10672,16 @@
       </c>
       <c r="S86" s="19"/>
       <c r="T86" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U86" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V86" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="W86" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="X86" s="13">
         <v>2224568749</v>
@@ -10689,14 +10689,14 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB86" s="19"/>
       <c r="AC86" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD86" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD86" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE86" s="13">
         <v>80011</v>
@@ -10736,7 +10736,7 @@
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O87" s="19"/>
       <c r="P87" s="19"/>
@@ -10748,16 +10748,16 @@
       </c>
       <c r="S87" s="19"/>
       <c r="T87" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V87" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="W87" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="W87" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="X87" s="13">
         <v>2224568749</v>
@@ -10765,14 +10765,14 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB87" s="19"/>
       <c r="AC87" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD87" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD87" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE87" s="13">
         <v>80011</v>
@@ -10812,7 +10812,7 @@
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O88" s="19"/>
       <c r="P88" s="19"/>
@@ -10824,16 +10824,16 @@
       </c>
       <c r="S88" s="19"/>
       <c r="T88" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V88" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="W88" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="W88" s="13" t="s">
-        <v>372</v>
       </c>
       <c r="X88" s="13">
         <v>2224568749</v>
@@ -10841,14 +10841,14 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB88" s="19"/>
       <c r="AC88" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD88" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD88" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE88" s="13">
         <v>80011</v>
@@ -10888,7 +10888,7 @@
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O89" s="19"/>
       <c r="P89" s="19"/>
@@ -10900,16 +10900,16 @@
       </c>
       <c r="S89" s="19"/>
       <c r="T89" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V89" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="W89" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="W89" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="X89" s="13">
         <v>2224568749</v>
@@ -10917,14 +10917,14 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB89" s="19"/>
       <c r="AC89" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD89" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD89" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE89" s="13">
         <v>80011</v>
@@ -10964,7 +10964,7 @@
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O90" s="19"/>
       <c r="P90" s="19"/>
@@ -10976,16 +10976,16 @@
       </c>
       <c r="S90" s="19"/>
       <c r="T90" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V90" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="W90" s="13" t="s">
         <v>375</v>
-      </c>
-      <c r="W90" s="13" t="s">
-        <v>376</v>
       </c>
       <c r="X90" s="13">
         <v>2224568749</v>
@@ -10993,14 +10993,14 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB90" s="19"/>
       <c r="AC90" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD90" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD90" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE90" s="13">
         <v>80011</v>
@@ -11040,7 +11040,7 @@
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O91" s="19"/>
       <c r="P91" s="19"/>
@@ -11052,16 +11052,16 @@
       </c>
       <c r="S91" s="19"/>
       <c r="T91" s="11" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="U91" s="5" t="s">
         <v>27</v>
       </c>
       <c r="V91" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="W91" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="W91" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="X91" s="13">
         <v>2224568749</v>
@@ -11069,14 +11069,14 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
       <c r="AA91" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB91" s="19"/>
       <c r="AC91" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD91" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="AD91" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="AE91" s="13">
         <v>80011</v>

--- a/src/test/resources/FHEO-Testdata1.xlsx
+++ b/src/test/resources/FHEO-Testdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBC660F-ECEB-4A8B-998B-D3A13E03CF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD7222-F0E3-41D5-8EC9-1C9C1A823065}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="380">
   <si>
     <t>race</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>05-12-2021</t>
+  </si>
+  <si>
+    <t>discDateWithTimestamp</t>
   </si>
 </sst>
 </file>
@@ -2113,13 +2116,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK91"/>
+  <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2164,7 +2167,7 @@
     <col min="38" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2276,8 +2279,11 @@
       <c r="AK1" s="14" t="s">
         <v>51</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
